--- a/EO-EC-TA-full/F4-full.xlsx
+++ b/EO-EC-TA-full/F4-full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\EO-EC-TA-full\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90511951-32D7-4CBB-BE75-76D2A4E8CE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A948913B-656B-4F1A-AF50-2EA873274831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0C641310-FB40-43FE-AF82-BFB87E5E6449}"/>
   </bookViews>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF87143D-44AE-4D46-A560-6B2880862535}">
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="O124" sqref="O124"/>
+    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,23 +529,23 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3">
-        <v>29.368634652531568</v>
-      </c>
-      <c r="C2" s="3">
-        <v>7.6210876123450397</v>
-      </c>
-      <c r="D2" s="3">
-        <v>5.0313663917334779</v>
-      </c>
-      <c r="E2" s="3">
-        <v>4.3602907865147529</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2.2616371901186501</v>
+      <c r="B2" s="4">
+        <v>64.146557510262113</v>
+      </c>
+      <c r="C2" s="4">
+        <v>21.5987686913756</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4.8786914881686769</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.466428709499672</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.2573622389851831</v>
       </c>
       <c r="G2">
-        <v>48.643016633243477</v>
+        <v>94.347808638291269</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -554,36 +554,36 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3">
-        <v>55.007497905314658</v>
-      </c>
-      <c r="C3" s="3">
-        <v>11.450093186456851</v>
-      </c>
-      <c r="D3" s="3">
-        <v>15.70373260426528</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3.8079602020675778</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2.7845117408982301</v>
+      <c r="B3" s="4">
+        <v>16.744632358103772</v>
+      </c>
+      <c r="C3" s="4">
+        <v>19.910798133155549</v>
+      </c>
+      <c r="D3" s="4">
+        <v>15.69046328879681</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4.0957034949357389</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1.6626265009471111</v>
       </c>
       <c r="G3">
-        <v>88.753795639002604</v>
+        <v>58.104223775938983</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>22</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
       </c>
       <c r="L3" t="s">
         <v>12</v>
@@ -605,23 +605,23 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3">
-        <v>110.1957566305345</v>
-      </c>
-      <c r="C4" s="3">
-        <v>29.958670583770122</v>
-      </c>
-      <c r="D4" s="3">
-        <v>18.567703617241921</v>
-      </c>
-      <c r="E4" s="3">
-        <v>5.5077431768548104</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2.9868817867442421</v>
+      <c r="B4" s="4">
+        <v>18.50064565181119</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6.5911690359939321</v>
+      </c>
+      <c r="D4" s="4">
+        <v>14.41053822501169</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5.2431700541467414</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2.093654316110269</v>
       </c>
       <c r="G4">
-        <v>167.21675579514559</v>
+        <v>46.839177283073823</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>14</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
       </c>
       <c r="L4" t="s">
         <v>12</v>
@@ -643,23 +643,23 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3">
-        <v>5.0719227455215536</v>
-      </c>
-      <c r="C5" s="3">
-        <v>34.726263781755293</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3.886479340309672</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.3689288577387271</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3.0080536839447132</v>
+      <c r="B5" s="4">
+        <v>224.34550815860959</v>
+      </c>
+      <c r="C5" s="4">
+        <v>41.661035204417097</v>
+      </c>
+      <c r="D5" s="4">
+        <v>6.4784637192893273</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.3144544274050012</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.11269106075334</v>
       </c>
       <c r="G5">
-        <v>49.061648409269957</v>
+        <v>277.9121525704744</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -682,22 +682,22 @@
         <v>11</v>
       </c>
       <c r="B6" s="3">
-        <v>10.26349536914562</v>
+        <v>29.368634652531568</v>
       </c>
       <c r="C6" s="3">
-        <v>8.1999987920678059</v>
+        <v>7.6210876123450397</v>
       </c>
       <c r="D6" s="3">
-        <v>9.1810046468391509</v>
+        <v>5.0313663917334779</v>
       </c>
       <c r="E6" s="3">
-        <v>3.9429921229467291</v>
+        <v>4.3602907865147529</v>
       </c>
       <c r="F6" s="3">
-        <v>3.009494544218744</v>
+        <v>2.2616371901186501</v>
       </c>
       <c r="G6">
-        <v>34.596985475218062</v>
+        <v>48.643016633243477</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
@@ -719,23 +719,23 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
-        <v>18.030977822114149</v>
-      </c>
-      <c r="C7" s="3">
-        <v>8.9531006483299365</v>
-      </c>
-      <c r="D7" s="3">
-        <v>6.3220977110116294</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3.654093527783838</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3.1549007479519831</v>
+      <c r="B7" s="4">
+        <v>8.477650613772191</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8.0926136755803615</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5.8267630399059476</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2.9726520898664401</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2.275287328474064</v>
       </c>
       <c r="G7">
-        <v>40.115170457191539</v>
+        <v>27.644966747599</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -744,13 +744,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>16</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -758,22 +758,22 @@
         <v>11</v>
       </c>
       <c r="B8" s="3">
-        <v>12.72526914383505</v>
+        <v>139.21338771500979</v>
       </c>
       <c r="C8" s="3">
-        <v>64.927224518994223</v>
+        <v>22.704288117682179</v>
       </c>
       <c r="D8" s="3">
-        <v>8.5305100643899365</v>
+        <v>4.6655194025948052</v>
       </c>
       <c r="E8" s="3">
-        <v>2.9855972111256039</v>
+        <v>3.293539360978722</v>
       </c>
       <c r="F8" s="3">
-        <v>3.4114171867967209</v>
+        <v>2.4426308177591118</v>
       </c>
       <c r="G8">
-        <v>92.580018125141535</v>
+        <v>172.3193654140247</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -782,36 +782,36 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
-        <v>27.433216222944569</v>
-      </c>
-      <c r="C9" s="3">
-        <v>19.17247394203768</v>
-      </c>
-      <c r="D9" s="3">
-        <v>69.677454498653347</v>
-      </c>
-      <c r="E9" s="3">
-        <v>8.8441100378892585</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3.7802687421540289</v>
+      <c r="B9" s="4">
+        <v>49.828564710556151</v>
+      </c>
+      <c r="C9" s="4">
+        <v>33.998545883394442</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3.6769757163166501</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2.6452257654075919</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2.541022489533348</v>
       </c>
       <c r="G9">
-        <v>128.90752344367891</v>
+        <v>92.690334565208161</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -820,36 +820,36 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>17</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3">
-        <v>38.592871054438973</v>
-      </c>
-      <c r="C10" s="3">
-        <v>13.360248720684851</v>
-      </c>
-      <c r="D10" s="3">
-        <v>11.22740130274866</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4.3540833937777004</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3.820490917173704</v>
+      <c r="B10" s="4">
+        <v>14.40155916338046</v>
+      </c>
+      <c r="C10" s="4">
+        <v>20.746208722076979</v>
+      </c>
+      <c r="D10" s="4">
+        <v>16.278754092360561</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.0411390442099773</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2.5829833107815832</v>
       </c>
       <c r="G10">
-        <v>71.355095388823898</v>
+        <v>58.050644332809547</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
       </c>
       <c r="L10" t="s">
         <v>12</v>
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>54.366291484197617</v>
+        <v>78.70239943105075</v>
       </c>
       <c r="C11" s="3">
-        <v>13.30878114670814</v>
+        <v>13.962405961289351</v>
       </c>
       <c r="D11" s="3">
-        <v>30.425065986265569</v>
+        <v>3.8274273952720241</v>
       </c>
       <c r="E11" s="3">
-        <v>6.6394508234951317</v>
+        <v>3.1340020436592</v>
       </c>
       <c r="F11" s="3">
-        <v>4.2702502401095837</v>
+        <v>2.6149633788930911</v>
       </c>
       <c r="G11">
-        <v>109.009839680776</v>
+        <v>102.2411982101644</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -896,36 +896,36 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>7.2757120967090767</v>
-      </c>
-      <c r="C12" s="3">
-        <v>37.604367774395698</v>
-      </c>
-      <c r="D12" s="3">
-        <v>16.28200260706647</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3.5777751726447748</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4.5736808548032357</v>
+      <c r="B12" s="4">
+        <v>87.305287244464751</v>
+      </c>
+      <c r="C12" s="4">
+        <v>28.97165398393393</v>
+      </c>
+      <c r="D12" s="4">
+        <v>11.633925019021881</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4.1036078603355248</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2.6179795177582799</v>
       </c>
       <c r="G12">
-        <v>69.313538505619277</v>
+        <v>134.63245362551439</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -934,36 +934,36 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
-        <v>54.466595801652304</v>
-      </c>
-      <c r="C13" s="3">
-        <v>12.76655718115653</v>
-      </c>
-      <c r="D13" s="3">
-        <v>14.81626258047393</v>
-      </c>
-      <c r="E13" s="3">
-        <v>10.131513910927939</v>
-      </c>
-      <c r="F13" s="3">
-        <v>5.2962527018992347</v>
+      <c r="B13" s="4">
+        <v>33.367532401044812</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7.0311979296125262</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3.911945840936728</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.9882281129160901</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2.7261301221853471</v>
       </c>
       <c r="G13">
-        <v>97.477182176109935</v>
+        <v>50.025034406695511</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -972,13 +972,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -986,22 +986,22 @@
         <v>11</v>
       </c>
       <c r="B14" s="3">
-        <v>30.962742378488219</v>
+        <v>55.007497905314658</v>
       </c>
       <c r="C14" s="3">
-        <v>33.199368791346522</v>
+        <v>11.450093186456851</v>
       </c>
       <c r="D14" s="3">
-        <v>39.893633637426191</v>
+        <v>15.70373260426528</v>
       </c>
       <c r="E14" s="3">
-        <v>6.9356979573597251</v>
+        <v>3.8079602020675778</v>
       </c>
       <c r="F14" s="3">
-        <v>5.6085382249672016</v>
+        <v>2.7845117408982301</v>
       </c>
       <c r="G14">
-        <v>116.59998098958781</v>
+        <v>88.753795639002604</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1024,22 +1024,22 @@
         <v>11</v>
       </c>
       <c r="B15" s="3">
-        <v>8.6520952918736356</v>
+        <v>23.30260613232268</v>
       </c>
       <c r="C15" s="3">
-        <v>67.675135708201623</v>
+        <v>38.074010325224293</v>
       </c>
       <c r="D15" s="3">
-        <v>21.25605954467196</v>
+        <v>5.882611182088807</v>
       </c>
       <c r="E15" s="3">
-        <v>5.6162048987557833</v>
+        <v>2.5987131662454348</v>
       </c>
       <c r="F15" s="3">
-        <v>5.9309995589954703</v>
+        <v>2.867887935422333</v>
       </c>
       <c r="G15">
-        <v>109.13049500249851</v>
+        <v>72.72582874130353</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1048,36 +1048,36 @@
         <v>0</v>
       </c>
       <c r="J15">
+        <v>16</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
         <v>13</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="3">
-        <v>26.497931476400009</v>
-      </c>
-      <c r="C16" s="3">
-        <v>99.220670756749342</v>
-      </c>
-      <c r="D16" s="3">
-        <v>21.264731760708781</v>
-      </c>
-      <c r="E16" s="3">
-        <v>4.1441380701414534</v>
-      </c>
-      <c r="F16" s="3">
-        <v>6.2048852034291873</v>
+      <c r="B16" s="4">
+        <v>24.685633929427642</v>
+      </c>
+      <c r="C16" s="4">
+        <v>7.5931393667692264</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2.792644114059911</v>
+      </c>
+      <c r="E16" s="4">
+        <v>7.6666029287902271</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2.979165538988457</v>
       </c>
       <c r="G16">
-        <v>157.33235726742879</v>
+        <v>45.717185878035458</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1086,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>19</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1</v>
       </c>
       <c r="L16" t="s">
         <v>12</v>
@@ -1100,22 +1100,22 @@
         <v>11</v>
       </c>
       <c r="B17" s="3">
-        <v>50.142459287101659</v>
+        <v>110.1957566305345</v>
       </c>
       <c r="C17" s="3">
-        <v>25.998977217182571</v>
+        <v>29.958670583770122</v>
       </c>
       <c r="D17" s="3">
-        <v>75.088391587956352</v>
+        <v>18.567703617241921</v>
       </c>
       <c r="E17" s="3">
-        <v>13.99278659947959</v>
+        <v>5.5077431768548104</v>
       </c>
       <c r="F17" s="3">
-        <v>6.6682808286588848</v>
+        <v>2.9868817867442421</v>
       </c>
       <c r="G17">
-        <v>171.8908955203791</v>
+        <v>167.21675579514559</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -1137,23 +1137,23 @@
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="3">
-        <v>11.212785309094309</v>
-      </c>
-      <c r="C18" s="3">
-        <v>68.167089350110317</v>
-      </c>
-      <c r="D18" s="3">
-        <v>9.1396893069580738</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3.6961423867469998</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6.6897460720185089</v>
+      <c r="B18" s="4">
+        <v>53.279644370207379</v>
+      </c>
+      <c r="C18" s="4">
+        <v>19.822840782282789</v>
+      </c>
+      <c r="D18" s="4">
+        <v>9.7124381073697919</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3.8940770874803179</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2.9981825209948809</v>
       </c>
       <c r="G18">
-        <v>98.905452424928185</v>
+        <v>89.707182868335138</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1162,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>23</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1176,22 +1176,22 @@
         <v>11</v>
       </c>
       <c r="B19" s="3">
-        <v>14.276412170780841</v>
+        <v>5.0719227455215536</v>
       </c>
       <c r="C19" s="3">
-        <v>86.116213364345384</v>
+        <v>34.726263781755293</v>
       </c>
       <c r="D19" s="3">
-        <v>22.32756950495633</v>
+        <v>3.886479340309672</v>
       </c>
       <c r="E19" s="3">
-        <v>4.9674673684294506</v>
+        <v>2.3689288577387271</v>
       </c>
       <c r="F19" s="3">
-        <v>7.1146552284721523</v>
+        <v>3.0080536839447132</v>
       </c>
       <c r="G19">
-        <v>134.80231763698421</v>
+        <v>49.061648409269957</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="K19" s="3">
         <v>0</v>
@@ -1214,22 +1214,22 @@
         <v>11</v>
       </c>
       <c r="B20" s="3">
-        <v>100.078898119226</v>
+        <v>10.26349536914562</v>
       </c>
       <c r="C20" s="3">
-        <v>81.43805670964062</v>
+        <v>8.1999987920678059</v>
       </c>
       <c r="D20" s="3">
-        <v>10.72367571731789</v>
+        <v>9.1810046468391509</v>
       </c>
       <c r="E20" s="3">
-        <v>7.2775084990663768</v>
+        <v>3.9429921229467291</v>
       </c>
       <c r="F20" s="3">
-        <v>7.351745465581784</v>
+        <v>3.009494544218744</v>
       </c>
       <c r="G20">
-        <v>206.86988451083269</v>
+        <v>34.596985475218062</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1252,22 +1252,22 @@
         <v>11</v>
       </c>
       <c r="B21" s="3">
-        <v>37.756049664872748</v>
+        <v>5.8449292228216461</v>
       </c>
       <c r="C21" s="3">
-        <v>23.84939058914512</v>
+        <v>40.40206465398083</v>
       </c>
       <c r="D21" s="3">
-        <v>59.061951074146883</v>
+        <v>4.2614339446675684</v>
       </c>
       <c r="E21" s="3">
-        <v>8.6659769680535614</v>
+        <v>2.5876103944143498</v>
       </c>
       <c r="F21" s="3">
-        <v>8.6879180766453601</v>
+        <v>3.0182977137793618</v>
       </c>
       <c r="G21">
-        <v>138.0212863728637</v>
+        <v>56.114335929663753</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1276,13 +1276,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1290,22 +1290,22 @@
         <v>11</v>
       </c>
       <c r="B22" s="3">
-        <v>7.6097159818681419</v>
+        <v>171.96893727928079</v>
       </c>
       <c r="C22" s="3">
-        <v>89.319375014866324</v>
+        <v>13.87619662877198</v>
       </c>
       <c r="D22" s="3">
-        <v>27.496726750676078</v>
+        <v>10.38729012968396</v>
       </c>
       <c r="E22" s="3">
-        <v>7.6957513699736007</v>
+        <v>4.2182398205139684</v>
       </c>
       <c r="F22" s="3">
-        <v>11.86502253587566</v>
+        <v>3.0215621795354441</v>
       </c>
       <c r="G22">
-        <v>143.98659165325981</v>
+        <v>203.4722260377861</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1314,13 +1314,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -1328,22 +1328,22 @@
         <v>11</v>
       </c>
       <c r="B23" s="3">
-        <v>647.50044938270469</v>
+        <v>18.030977822114149</v>
       </c>
       <c r="C23" s="3">
-        <v>97.430310618645535</v>
+        <v>8.9531006483299365</v>
       </c>
       <c r="D23" s="3">
-        <v>50.192507118899357</v>
+        <v>6.3220977110116294</v>
       </c>
       <c r="E23" s="3">
-        <v>24.514869046440751</v>
+        <v>3.654093527783838</v>
       </c>
       <c r="F23" s="3">
-        <v>14.96035063843501</v>
+        <v>3.1549007479519831</v>
       </c>
       <c r="G23">
-        <v>834.59848680512562</v>
+        <v>40.115170457191539</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -1366,22 +1366,22 @@
         <v>11</v>
       </c>
       <c r="B24" s="3">
-        <v>5.8449292228216461</v>
+        <v>1453.4922561168869</v>
       </c>
       <c r="C24" s="3">
-        <v>40.40206465398083</v>
+        <v>95.26348723726673</v>
       </c>
       <c r="D24" s="3">
-        <v>4.2614339446675684</v>
+        <v>11.671662519159209</v>
       </c>
       <c r="E24" s="3">
-        <v>2.5876103944143498</v>
+        <v>4.867070586111292</v>
       </c>
       <c r="F24" s="3">
-        <v>3.0182977137793618</v>
+        <v>3.242407507744169</v>
       </c>
       <c r="G24">
-        <v>56.114335929663753</v>
+        <v>1568.5368839671689</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1390,36 +1390,36 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="3">
-        <v>11.10141291241365</v>
-      </c>
-      <c r="C25" s="3">
-        <v>53.961721748221272</v>
-      </c>
-      <c r="D25" s="3">
-        <v>8.1692840131647912</v>
-      </c>
-      <c r="E25" s="3">
-        <v>4.3279962838817481</v>
-      </c>
-      <c r="F25" s="3">
-        <v>5.8049816855873786</v>
+      <c r="B25" s="4">
+        <v>7.4375264104219676</v>
+      </c>
+      <c r="C25" s="4">
+        <v>8.83302284535851</v>
+      </c>
+      <c r="D25" s="4">
+        <v>8.7033181351344382</v>
+      </c>
+      <c r="E25" s="4">
+        <v>4.1618711968947926</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3.2776539016279558</v>
       </c>
       <c r="G25">
-        <v>83.365396643268852</v>
+        <v>32.413392489437669</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1428,13 +1428,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>13</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -1442,22 +1442,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3">
-        <v>22.631364641042751</v>
+        <v>46.222570106156368</v>
       </c>
       <c r="C26" s="3">
-        <v>8.1533704824543918</v>
+        <v>14.959979406873209</v>
       </c>
       <c r="D26" s="3">
-        <v>5.4239135529285933</v>
+        <v>17.81702469469862</v>
       </c>
       <c r="E26" s="3">
-        <v>3.9915684525731301</v>
+        <v>6.8359227512622578</v>
       </c>
       <c r="F26" s="3">
-        <v>4.7481648801864269</v>
+        <v>3.4059806616032211</v>
       </c>
       <c r="G26">
-        <v>44.948382009185309</v>
+        <v>89.241477620593685</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -1480,22 +1480,22 @@
         <v>11</v>
       </c>
       <c r="B27" s="3">
-        <v>23.30260613232268</v>
+        <v>12.72526914383505</v>
       </c>
       <c r="C27" s="3">
-        <v>38.074010325224293</v>
+        <v>64.927224518994223</v>
       </c>
       <c r="D27" s="3">
-        <v>5.882611182088807</v>
+        <v>8.5305100643899365</v>
       </c>
       <c r="E27" s="3">
-        <v>2.5987131662454348</v>
+        <v>2.9855972111256039</v>
       </c>
       <c r="F27" s="3">
-        <v>2.867887935422333</v>
+        <v>3.4114171867967209</v>
       </c>
       <c r="G27">
-        <v>72.72582874130353</v>
+        <v>92.580018125141535</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1504,13 +1504,13 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -1518,22 +1518,22 @@
         <v>11</v>
       </c>
       <c r="B28" s="3">
-        <v>25.11970571891176</v>
+        <v>86.970438363558458</v>
       </c>
       <c r="C28" s="3">
-        <v>72.381527620920394</v>
+        <v>15.55705578462587</v>
       </c>
       <c r="D28" s="3">
-        <v>17.511131036755589</v>
+        <v>6.5120802178745798</v>
       </c>
       <c r="E28" s="3">
-        <v>26.277533370937849</v>
+        <v>3.0926715557991389</v>
       </c>
       <c r="F28" s="3">
-        <v>62.671355279622048</v>
+        <v>3.4266131389117112</v>
       </c>
       <c r="G28">
-        <v>203.96125302714771</v>
+        <v>115.55885906076971</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K28" s="3">
         <v>0</v>
@@ -1555,23 +1555,23 @@
       <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="3">
-        <v>28.892945691475731</v>
-      </c>
-      <c r="C29" s="3">
-        <v>52.235185348874232</v>
-      </c>
-      <c r="D29" s="3">
-        <v>11.73410939174765</v>
-      </c>
-      <c r="E29" s="3">
-        <v>6.6955116307276388</v>
-      </c>
-      <c r="F29" s="3">
-        <v>11.151977665769319</v>
+      <c r="B29" s="4">
+        <v>82.42069155877364</v>
+      </c>
+      <c r="C29" s="4">
+        <v>11.14951875568627</v>
+      </c>
+      <c r="D29" s="4">
+        <v>4.6900519218349164</v>
+      </c>
+      <c r="E29" s="4">
+        <v>4.1330855457455744</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3.4323779740965521</v>
       </c>
       <c r="G29">
-        <v>110.7097297285945</v>
+        <v>105.8257257561369</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1580,36 +1580,36 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>6</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="3">
-        <v>31.387503493948589</v>
-      </c>
-      <c r="C30" s="3">
-        <v>77.335429989990814</v>
-      </c>
-      <c r="D30" s="3">
-        <v>6.7564165138920904</v>
-      </c>
-      <c r="E30" s="3">
-        <v>2.6600599844538979</v>
-      </c>
-      <c r="F30" s="3">
-        <v>3.8612147830896162</v>
+      <c r="B30" s="4">
+        <v>15.51715359627311</v>
+      </c>
+      <c r="C30" s="4">
+        <v>7.090294875343865</v>
+      </c>
+      <c r="D30" s="4">
+        <v>17.542167375562119</v>
+      </c>
+      <c r="E30" s="4">
+        <v>6.5776356228729913</v>
+      </c>
+      <c r="F30" s="4">
+        <v>3.74175953522631</v>
       </c>
       <c r="G30">
-        <v>122.00062476537499</v>
+        <v>50.469011005278396</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>19</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -1632,22 +1632,22 @@
         <v>11</v>
       </c>
       <c r="B31" s="3">
-        <v>31.828649368552</v>
+        <v>27.433216222944569</v>
       </c>
       <c r="C31" s="3">
-        <v>18.908298727533509</v>
+        <v>19.17247394203768</v>
       </c>
       <c r="D31" s="3">
-        <v>31.40174974716226</v>
+        <v>69.677454498653347</v>
       </c>
       <c r="E31" s="3">
-        <v>5.8022223877915318</v>
+        <v>8.8441100378892585</v>
       </c>
       <c r="F31" s="3">
-        <v>4.418145038889727</v>
+        <v>3.7802687421540289</v>
       </c>
       <c r="G31">
-        <v>92.359065269929062</v>
+        <v>128.90752344367891</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1656,36 +1656,36 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="K31" s="3">
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="3">
-        <v>36.965916177097043</v>
-      </c>
-      <c r="C32" s="3">
-        <v>7.214446567035421</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3.9754509588563929</v>
-      </c>
-      <c r="E32" s="3">
-        <v>6.9542985230032262</v>
-      </c>
-      <c r="F32" s="3">
-        <v>10.422536763192269</v>
+      <c r="B32" s="4">
+        <v>163.72709289106251</v>
+      </c>
+      <c r="C32" s="4">
+        <v>28.036334064485551</v>
+      </c>
+      <c r="D32" s="4">
+        <v>3.9390272816167351</v>
+      </c>
+      <c r="E32" s="4">
+        <v>4.9067077663200473</v>
+      </c>
+      <c r="F32" s="4">
+        <v>3.802157299757845</v>
       </c>
       <c r="G32">
-        <v>65.532648989184352</v>
+        <v>204.41131930324281</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1694,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1</v>
       </c>
       <c r="L32" t="s">
         <v>13</v>
@@ -1708,22 +1708,22 @@
         <v>11</v>
       </c>
       <c r="B33" s="3">
-        <v>37.910106570296051</v>
+        <v>38.592871054438973</v>
       </c>
       <c r="C33" s="3">
-        <v>11.279301323781601</v>
+        <v>13.360248720684851</v>
       </c>
       <c r="D33" s="3">
-        <v>6.6749793732467708</v>
+        <v>11.22740130274866</v>
       </c>
       <c r="E33" s="3">
-        <v>5.8443960088444822</v>
+        <v>4.3540833937777004</v>
       </c>
       <c r="F33" s="3">
-        <v>11.53096403371379</v>
+        <v>3.820490917173704</v>
       </c>
       <c r="G33">
-        <v>73.239747309882674</v>
+        <v>71.355095388823898</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -1746,22 +1746,22 @@
         <v>11</v>
       </c>
       <c r="B34" s="3">
-        <v>46.222570106156368</v>
+        <v>31.387503493948589</v>
       </c>
       <c r="C34" s="3">
-        <v>14.959979406873209</v>
+        <v>77.335429989990814</v>
       </c>
       <c r="D34" s="3">
-        <v>17.81702469469862</v>
+        <v>6.7564165138920904</v>
       </c>
       <c r="E34" s="3">
-        <v>6.8359227512622578</v>
+        <v>2.6600599844538979</v>
       </c>
       <c r="F34" s="3">
-        <v>3.4059806616032211</v>
+        <v>3.8612147830896162</v>
       </c>
       <c r="G34">
-        <v>89.241477620593685</v>
+        <v>122.00062476537499</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K34" s="3">
         <v>0</v>
@@ -1783,23 +1783,23 @@
       <c r="A35" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="3">
-        <v>46.51842331614214</v>
-      </c>
-      <c r="C35" s="3">
-        <v>51.937856824134997</v>
-      </c>
-      <c r="D35" s="3">
-        <v>6.3773241782014756</v>
-      </c>
-      <c r="E35" s="3">
-        <v>4.1518241142712649</v>
-      </c>
-      <c r="F35" s="3">
-        <v>6.825680521523581</v>
+      <c r="B35" s="4">
+        <v>116.6684656025654</v>
+      </c>
+      <c r="C35" s="4">
+        <v>34.564026593761852</v>
+      </c>
+      <c r="D35" s="4">
+        <v>6.2884297078213356</v>
+      </c>
+      <c r="E35" s="4">
+        <v>5.2777197161249836</v>
+      </c>
+      <c r="F35" s="4">
+        <v>3.950980184833087</v>
       </c>
       <c r="G35">
-        <v>115.81110895427349</v>
+        <v>166.74962180510661</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1808,13 +1808,13 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>24</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -1822,22 +1822,22 @@
         <v>11</v>
       </c>
       <c r="B36" s="3">
-        <v>48.705299055273009</v>
+        <v>58.177993445604393</v>
       </c>
       <c r="C36" s="3">
-        <v>16.882905417496499</v>
+        <v>233.92499510799561</v>
       </c>
       <c r="D36" s="3">
-        <v>6.3912489302101019</v>
+        <v>17.311261854793521</v>
       </c>
       <c r="E36" s="3">
-        <v>13.223548913489591</v>
+        <v>7.9392499145509072</v>
       </c>
       <c r="F36" s="3">
-        <v>15.156488708961829</v>
+        <v>3.9820096580147459</v>
       </c>
       <c r="G36">
-        <v>100.359491025431</v>
+        <v>321.33550998095899</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K36" s="3">
         <v>0</v>
@@ -1859,23 +1859,23 @@
       <c r="A37" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="3">
-        <v>57.209134695904062</v>
-      </c>
-      <c r="C37" s="3">
-        <v>20.109578693041911</v>
-      </c>
-      <c r="D37" s="3">
-        <v>13.832647585749219</v>
-      </c>
-      <c r="E37" s="3">
-        <v>9.418648708694537</v>
-      </c>
-      <c r="F37" s="3">
-        <v>13.620405255560099</v>
+      <c r="B37" s="4">
+        <v>15.565160565350549</v>
+      </c>
+      <c r="C37" s="4">
+        <v>8.3245852575564037</v>
+      </c>
+      <c r="D37" s="4">
+        <v>8.7217637201035352</v>
+      </c>
+      <c r="E37" s="4">
+        <v>5.9182706821284272</v>
+      </c>
+      <c r="F37" s="4">
+        <v>4.0456980284571804</v>
       </c>
       <c r="G37">
-        <v>114.1904149389498</v>
+        <v>42.575478253596103</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1884,36 +1884,36 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>20</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K37" s="4">
+        <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="3">
-        <v>58.177993445604393</v>
-      </c>
-      <c r="C38" s="3">
-        <v>233.92499510799561</v>
-      </c>
-      <c r="D38" s="3">
-        <v>17.311261854793521</v>
-      </c>
-      <c r="E38" s="3">
-        <v>7.9392499145509072</v>
-      </c>
-      <c r="F38" s="3">
-        <v>3.9820096580147459</v>
+      <c r="B38" s="4">
+        <v>42.828189383413083</v>
+      </c>
+      <c r="C38" s="4">
+        <v>6.8391669397433947</v>
+      </c>
+      <c r="D38" s="4">
+        <v>5.9583657263394354</v>
+      </c>
+      <c r="E38" s="4">
+        <v>5.976364290412544</v>
+      </c>
+      <c r="F38" s="4">
+        <v>4.192491557473879</v>
       </c>
       <c r="G38">
-        <v>321.33550998095899</v>
+        <v>65.794577897382325</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1922,36 +1922,36 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>9</v>
-      </c>
-      <c r="K38" s="3">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="3">
-        <v>67.875493173948982</v>
-      </c>
-      <c r="C39" s="3">
-        <v>13.224759320104949</v>
-      </c>
-      <c r="D39" s="3">
-        <v>10.403097821724311</v>
-      </c>
-      <c r="E39" s="3">
-        <v>10.482069451368041</v>
-      </c>
-      <c r="F39" s="3">
-        <v>11.554793573648301</v>
+      <c r="B39" s="4">
+        <v>231.4108844620059</v>
+      </c>
+      <c r="C39" s="4">
+        <v>58.486922443380152</v>
+      </c>
+      <c r="D39" s="4">
+        <v>7.7023226506775284</v>
+      </c>
+      <c r="E39" s="4">
+        <v>3.982297633688471</v>
+      </c>
+      <c r="F39" s="4">
+        <v>4.2412067308771668</v>
       </c>
       <c r="G39">
-        <v>113.54021334079459</v>
+        <v>305.82363392062928</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1960,13 +1960,13 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39" s="3">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="K39" s="4">
+        <v>1</v>
       </c>
       <c r="L39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -1974,22 +1974,22 @@
         <v>11</v>
       </c>
       <c r="B40" s="3">
-        <v>78.70239943105075</v>
+        <v>54.366291484197617</v>
       </c>
       <c r="C40" s="3">
-        <v>13.962405961289351</v>
+        <v>13.30878114670814</v>
       </c>
       <c r="D40" s="3">
-        <v>3.8274273952720241</v>
+        <v>30.425065986265569</v>
       </c>
       <c r="E40" s="3">
-        <v>3.1340020436592</v>
+        <v>6.6394508234951317</v>
       </c>
       <c r="F40" s="3">
-        <v>2.6149633788930911</v>
+        <v>4.2702502401095837</v>
       </c>
       <c r="G40">
-        <v>102.2411982101644</v>
+        <v>109.009839680776</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1998,13 +1998,13 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K40" s="3">
         <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -2012,22 +2012,22 @@
         <v>11</v>
       </c>
       <c r="B41" s="3">
-        <v>86.970438363558458</v>
+        <v>31.828649368552</v>
       </c>
       <c r="C41" s="3">
-        <v>15.55705578462587</v>
+        <v>18.908298727533509</v>
       </c>
       <c r="D41" s="3">
-        <v>6.5120802178745798</v>
+        <v>31.40174974716226</v>
       </c>
       <c r="E41" s="3">
-        <v>3.0926715557991389</v>
+        <v>5.8022223877915318</v>
       </c>
       <c r="F41" s="3">
-        <v>3.4266131389117112</v>
+        <v>4.418145038889727</v>
       </c>
       <c r="G41">
-        <v>115.55885906076971</v>
+        <v>92.359065269929062</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2049,23 +2049,23 @@
       <c r="A42" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="3">
-        <v>95.252481567230873</v>
-      </c>
-      <c r="C42" s="3">
-        <v>35.372875165236721</v>
-      </c>
-      <c r="D42" s="3">
-        <v>64.253429598289301</v>
-      </c>
-      <c r="E42" s="3">
-        <v>36.666158455169906</v>
-      </c>
-      <c r="F42" s="3">
-        <v>50.563439926190753</v>
+      <c r="B42" s="4">
+        <v>22.339217003193369</v>
+      </c>
+      <c r="C42" s="4">
+        <v>26.503565023239609</v>
+      </c>
+      <c r="D42" s="4">
+        <v>126.12661859856939</v>
+      </c>
+      <c r="E42" s="4">
+        <v>14.52095503330556</v>
+      </c>
+      <c r="F42" s="4">
+        <v>4.5303963184619436</v>
       </c>
       <c r="G42">
-        <v>282.10838471211758</v>
+        <v>194.0207519767699</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2074,13 +2074,13 @@
         <v>0</v>
       </c>
       <c r="J42">
+        <v>23</v>
+      </c>
+      <c r="K42" s="4">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
         <v>12</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -2088,22 +2088,22 @@
         <v>11</v>
       </c>
       <c r="B43" s="3">
-        <v>145.03620506812479</v>
+        <v>7.2757120967090767</v>
       </c>
       <c r="C43" s="3">
-        <v>18.974587502312641</v>
+        <v>37.604367774395698</v>
       </c>
       <c r="D43" s="3">
-        <v>12.71607094038716</v>
+        <v>16.28200260706647</v>
       </c>
       <c r="E43" s="3">
-        <v>5.7950475973084288</v>
+        <v>3.5777751726447748</v>
       </c>
       <c r="F43" s="3">
-        <v>4.7068611509981606</v>
+        <v>4.5736808548032357</v>
       </c>
       <c r="G43">
-        <v>187.2287722591312</v>
+        <v>69.313538505619277</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2112,13 +2112,13 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -2126,22 +2126,22 @@
         <v>11</v>
       </c>
       <c r="B44" s="3">
-        <v>146.40383674498131</v>
+        <v>145.03620506812479</v>
       </c>
       <c r="C44" s="3">
-        <v>83.346811712094706</v>
+        <v>18.974587502312641</v>
       </c>
       <c r="D44" s="3">
-        <v>10.32709519848682</v>
+        <v>12.71607094038716</v>
       </c>
       <c r="E44" s="3">
-        <v>9.9199036430491905</v>
+        <v>5.7950475973084288</v>
       </c>
       <c r="F44" s="3">
-        <v>16.27765490855883</v>
+        <v>4.7068611509981606</v>
       </c>
       <c r="G44">
-        <v>266.27530220717091</v>
+        <v>187.2287722591312</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2163,23 +2163,23 @@
       <c r="A45" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="3">
-        <v>171.96893727928079</v>
-      </c>
-      <c r="C45" s="3">
-        <v>13.87619662877198</v>
-      </c>
-      <c r="D45" s="3">
-        <v>10.38729012968396</v>
-      </c>
-      <c r="E45" s="3">
-        <v>4.2182398205139684</v>
-      </c>
-      <c r="F45" s="3">
-        <v>3.0215621795354441</v>
+      <c r="B45" s="4">
+        <v>9.8773307256845442</v>
+      </c>
+      <c r="C45" s="4">
+        <v>4.9101774058558263</v>
+      </c>
+      <c r="D45" s="4">
+        <v>18.109678920355289</v>
+      </c>
+      <c r="E45" s="4">
+        <v>12.443896317768409</v>
+      </c>
+      <c r="F45" s="4">
+        <v>4.7344296122511613</v>
       </c>
       <c r="G45">
-        <v>203.4722260377861</v>
+        <v>50.075512981915217</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2188,36 +2188,36 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>14</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="K45" s="4">
+        <v>1</v>
       </c>
       <c r="L45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="3">
-        <v>244.11410199352551</v>
-      </c>
-      <c r="C46" s="3">
-        <v>56.779821841488889</v>
-      </c>
-      <c r="D46" s="3">
-        <v>19.942472707844701</v>
-      </c>
-      <c r="E46" s="3">
-        <v>19.70767607195997</v>
-      </c>
-      <c r="F46" s="3">
-        <v>17.062972035369292</v>
+      <c r="B46" s="4">
+        <v>30.114974835380231</v>
+      </c>
+      <c r="C46" s="4">
+        <v>72.831221705717397</v>
+      </c>
+      <c r="D46" s="4">
+        <v>30.510531420629789</v>
+      </c>
+      <c r="E46" s="4">
+        <v>5.511598592187509</v>
+      </c>
+      <c r="F46" s="4">
+        <v>4.7358522556709826</v>
       </c>
       <c r="G46">
-        <v>357.6070446501883</v>
+        <v>143.7041788095859</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2226,13 +2226,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>21</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="K46" s="4">
+        <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -2240,22 +2240,22 @@
         <v>11</v>
       </c>
       <c r="B47" s="3">
-        <v>10.121981886041141</v>
+        <v>22.631364641042751</v>
       </c>
       <c r="C47" s="3">
-        <v>51.593555841213004</v>
+        <v>8.1533704824543918</v>
       </c>
       <c r="D47" s="3">
-        <v>11.974971310795359</v>
+        <v>5.4239135529285933</v>
       </c>
       <c r="E47" s="3">
-        <v>3.6061629868459431</v>
+        <v>3.9915684525731301</v>
       </c>
       <c r="F47" s="3">
-        <v>5.3701320364924578</v>
+        <v>4.7481648801864269</v>
       </c>
       <c r="G47">
-        <v>82.666804061387879</v>
+        <v>44.948382009185309</v>
       </c>
       <c r="H47">
         <v>0.25</v>
@@ -2264,36 +2264,36 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="3">
-        <v>7.2805299698054409</v>
-      </c>
-      <c r="C48" s="3">
-        <v>85.068805150586627</v>
-      </c>
-      <c r="D48" s="3">
-        <v>6.1617140029686617</v>
-      </c>
-      <c r="E48" s="3">
-        <v>3.5451254414476918</v>
-      </c>
-      <c r="F48" s="3">
-        <v>5.7657252826849064</v>
+      <c r="B48" s="4">
+        <v>32.620137155905233</v>
+      </c>
+      <c r="C48" s="4">
+        <v>19.600926529759189</v>
+      </c>
+      <c r="D48" s="4">
+        <v>28.84714093872233</v>
+      </c>
+      <c r="E48" s="4">
+        <v>12.316886020073399</v>
+      </c>
+      <c r="F48" s="4">
+        <v>4.8446011609255999</v>
       </c>
       <c r="G48">
-        <v>107.8218998474933</v>
+        <v>98.229691805385713</v>
       </c>
       <c r="H48">
         <v>0.25</v>
@@ -2302,36 +2302,36 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="3">
-        <v>18.034066232794899</v>
-      </c>
-      <c r="C49" s="3">
-        <v>72.624982602284007</v>
-      </c>
-      <c r="D49" s="3">
-        <v>10.35439948295355</v>
-      </c>
-      <c r="E49" s="3">
-        <v>4.4782103587955344</v>
-      </c>
-      <c r="F49" s="3">
-        <v>5.4931340561346511</v>
+      <c r="B49" s="4">
+        <v>64.573613660137553</v>
+      </c>
+      <c r="C49" s="4">
+        <v>18.494959218024409</v>
+      </c>
+      <c r="D49" s="4">
+        <v>14.920458955394659</v>
+      </c>
+      <c r="E49" s="4">
+        <v>8.2025462065397505</v>
+      </c>
+      <c r="F49" s="4">
+        <v>5.1580699305408899</v>
       </c>
       <c r="G49">
-        <v>110.9847927329626</v>
+        <v>111.34964797063731</v>
       </c>
       <c r="H49">
         <v>0.25</v>
@@ -2340,10 +2340,10 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>14</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1</v>
       </c>
       <c r="L49" t="s">
         <v>14</v>
@@ -2353,23 +2353,23 @@
       <c r="A50" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="3">
-        <v>12.744998451409399</v>
-      </c>
-      <c r="C50" s="3">
-        <v>81.100929277775606</v>
-      </c>
-      <c r="D50" s="3">
-        <v>10.353389279654481</v>
-      </c>
-      <c r="E50" s="3">
-        <v>10.63079523346852</v>
-      </c>
-      <c r="F50" s="3">
-        <v>22.131706370413159</v>
+      <c r="B50" s="4">
+        <v>56.00783069780281</v>
+      </c>
+      <c r="C50" s="4">
+        <v>30.166081215382359</v>
+      </c>
+      <c r="D50" s="4">
+        <v>13.38891158517229</v>
+      </c>
+      <c r="E50" s="4">
+        <v>6.4449641655804104</v>
+      </c>
+      <c r="F50" s="4">
+        <v>5.1945397249404062</v>
       </c>
       <c r="G50">
-        <v>136.9618186127212</v>
+        <v>111.2023273888783</v>
       </c>
       <c r="H50">
         <v>0.25</v>
@@ -2378,36 +2378,36 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>7</v>
-      </c>
-      <c r="K50" s="3">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K50" s="4">
+        <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="3">
-        <v>63.846987322618929</v>
-      </c>
-      <c r="C51" s="3">
-        <v>36.578954397111517</v>
-      </c>
-      <c r="D51" s="3">
-        <v>25.649541744618869</v>
-      </c>
-      <c r="E51" s="3">
-        <v>10.579521764170559</v>
-      </c>
-      <c r="F51" s="3">
-        <v>12.281086398986959</v>
+      <c r="B51" s="4">
+        <v>459.43131100438018</v>
+      </c>
+      <c r="C51" s="4">
+        <v>43.575246075454757</v>
+      </c>
+      <c r="D51" s="4">
+        <v>10.79724944633465</v>
+      </c>
+      <c r="E51" s="4">
+        <v>6.452697759516874</v>
+      </c>
+      <c r="F51" s="4">
+        <v>5.2950772140498632</v>
       </c>
       <c r="G51">
-        <v>148.93609162750681</v>
+        <v>525.55158149973636</v>
       </c>
       <c r="H51">
         <v>0.25</v>
@@ -2418,11 +2418,11 @@
       <c r="J51">
         <v>18</v>
       </c>
-      <c r="K51" s="3">
-        <v>0</v>
+      <c r="K51" s="4">
+        <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -2430,22 +2430,22 @@
         <v>11</v>
       </c>
       <c r="B52" s="3">
-        <v>39.6270470852714</v>
+        <v>54.466595801652304</v>
       </c>
       <c r="C52" s="3">
-        <v>103.4093075737668</v>
+        <v>12.76655718115653</v>
       </c>
       <c r="D52" s="3">
-        <v>10.558605364345979</v>
+        <v>14.81626258047393</v>
       </c>
       <c r="E52" s="3">
-        <v>3.7197367544186068</v>
+        <v>10.131513910927939</v>
       </c>
       <c r="F52" s="3">
-        <v>7.0465680528271983</v>
+        <v>5.2962527018992347</v>
       </c>
       <c r="G52">
-        <v>164.36126483063001</v>
+        <v>97.477182176109935</v>
       </c>
       <c r="H52">
         <v>0.25</v>
@@ -2460,30 +2460,30 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="3">
-        <v>39.6270470852714</v>
-      </c>
-      <c r="C53" s="3">
-        <v>103.4093075737668</v>
-      </c>
-      <c r="D53" s="3">
-        <v>10.558605364345979</v>
-      </c>
-      <c r="E53" s="3">
-        <v>3.7197367544186068</v>
-      </c>
-      <c r="F53" s="3">
-        <v>7.0465680528271983</v>
+      <c r="B53" s="4">
+        <v>19.98731361287884</v>
+      </c>
+      <c r="C53" s="4">
+        <v>10.306860844665129</v>
+      </c>
+      <c r="D53" s="4">
+        <v>6.0534239460573582</v>
+      </c>
+      <c r="E53" s="4">
+        <v>5.2631984891111756</v>
+      </c>
+      <c r="F53" s="4">
+        <v>5.3131420720231386</v>
       </c>
       <c r="G53">
-        <v>164.36126483063001</v>
+        <v>46.92393896473564</v>
       </c>
       <c r="H53">
         <v>0.25</v>
@@ -2492,10 +2492,10 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>2</v>
-      </c>
-      <c r="K53" s="3">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K53" s="4">
+        <v>1</v>
       </c>
       <c r="L53" t="s">
         <v>14</v>
@@ -2505,23 +2505,23 @@
       <c r="A54" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="3">
-        <v>39.6270470852714</v>
-      </c>
-      <c r="C54" s="3">
-        <v>103.4093075737668</v>
-      </c>
-      <c r="D54" s="3">
-        <v>10.558605364345979</v>
-      </c>
-      <c r="E54" s="3">
-        <v>3.7197367544186068</v>
-      </c>
-      <c r="F54" s="3">
-        <v>7.0465680528271983</v>
+      <c r="B54" s="4">
+        <v>22.929922573484092</v>
+      </c>
+      <c r="C54" s="4">
+        <v>33.990176425342199</v>
+      </c>
+      <c r="D54" s="4">
+        <v>115.3669789310367</v>
+      </c>
+      <c r="E54" s="4">
+        <v>13.03752596194489</v>
+      </c>
+      <c r="F54" s="4">
+        <v>5.3400825035871069</v>
       </c>
       <c r="G54">
-        <v>164.36126483063001</v>
+        <v>190.66468639539491</v>
       </c>
       <c r="H54">
         <v>0.25</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="K54" s="4">
+        <v>1</v>
       </c>
       <c r="L54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -2544,22 +2544,22 @@
         <v>11</v>
       </c>
       <c r="B55" s="3">
-        <v>39.6270470852714</v>
+        <v>10.121981886041141</v>
       </c>
       <c r="C55" s="3">
-        <v>103.4093075737668</v>
+        <v>51.593555841213004</v>
       </c>
       <c r="D55" s="3">
-        <v>10.558605364345979</v>
+        <v>11.974971310795359</v>
       </c>
       <c r="E55" s="3">
-        <v>3.7197367544186068</v>
+        <v>3.6061629868459431</v>
       </c>
       <c r="F55" s="3">
-        <v>7.0465680528271983</v>
+        <v>5.3701320364924578</v>
       </c>
       <c r="G55">
-        <v>164.36126483063001</v>
+        <v>82.666804061387879</v>
       </c>
       <c r="H55">
         <v>0.25</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K55" s="3">
         <v>0</v>
@@ -2581,23 +2581,23 @@
       <c r="A56" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="3">
-        <v>39.6270470852714</v>
-      </c>
-      <c r="C56" s="3">
-        <v>103.4093075737668</v>
-      </c>
-      <c r="D56" s="3">
-        <v>10.558605364345979</v>
-      </c>
-      <c r="E56" s="3">
-        <v>3.7197367544186068</v>
-      </c>
-      <c r="F56" s="3">
-        <v>7.0465680528271983</v>
+      <c r="B56" s="4">
+        <v>16.578096574735302</v>
+      </c>
+      <c r="C56" s="4">
+        <v>7.775813079002889</v>
+      </c>
+      <c r="D56" s="4">
+        <v>25.539991459771318</v>
+      </c>
+      <c r="E56" s="4">
+        <v>11.40953448778923</v>
+      </c>
+      <c r="F56" s="4">
+        <v>5.4295698144921047</v>
       </c>
       <c r="G56">
-        <v>164.36126483063001</v>
+        <v>66.733005415790842</v>
       </c>
       <c r="H56">
         <v>0.25</v>
@@ -2606,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>9</v>
-      </c>
-      <c r="K56" s="3">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K56" s="4">
+        <v>1</v>
       </c>
       <c r="L56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -2620,22 +2620,22 @@
         <v>11</v>
       </c>
       <c r="B57" s="3">
-        <v>39.6270470852714</v>
+        <v>18.034066232794899</v>
       </c>
       <c r="C57" s="3">
-        <v>103.4093075737668</v>
+        <v>72.624982602284007</v>
       </c>
       <c r="D57" s="3">
-        <v>10.558605364345979</v>
+        <v>10.35439948295355</v>
       </c>
       <c r="E57" s="3">
-        <v>3.7197367544186068</v>
+        <v>4.4782103587955344</v>
       </c>
       <c r="F57" s="3">
-        <v>7.0465680528271983</v>
+        <v>5.4931340561346511</v>
       </c>
       <c r="G57">
-        <v>164.36126483063001</v>
+        <v>110.9847927329626</v>
       </c>
       <c r="H57">
         <v>0.25</v>
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2657,23 +2657,23 @@
       <c r="A58" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="3">
-        <v>39.6270470852714</v>
-      </c>
-      <c r="C58" s="3">
-        <v>103.4093075737668</v>
-      </c>
-      <c r="D58" s="3">
-        <v>10.558605364345979</v>
-      </c>
-      <c r="E58" s="3">
-        <v>3.7197367544186068</v>
-      </c>
-      <c r="F58" s="3">
-        <v>7.0465680528271983</v>
+      <c r="B58" s="4">
+        <v>379.31830604333879</v>
+      </c>
+      <c r="C58" s="4">
+        <v>94.716930743995889</v>
+      </c>
+      <c r="D58" s="4">
+        <v>29.09928765752057</v>
+      </c>
+      <c r="E58" s="4">
+        <v>12.499553420782179</v>
+      </c>
+      <c r="F58" s="4">
+        <v>5.5082767059114968</v>
       </c>
       <c r="G58">
-        <v>164.36126483063001</v>
+        <v>521.14235457154882</v>
       </c>
       <c r="H58">
         <v>0.25</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>16</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="K58" s="4">
+        <v>1</v>
       </c>
       <c r="L58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -2696,22 +2696,22 @@
         <v>11</v>
       </c>
       <c r="B59" s="3">
-        <v>39.6270470852714</v>
+        <v>30.962742378488219</v>
       </c>
       <c r="C59" s="3">
-        <v>103.4093075737668</v>
+        <v>33.199368791346522</v>
       </c>
       <c r="D59" s="3">
-        <v>10.558605364345979</v>
+        <v>39.893633637426191</v>
       </c>
       <c r="E59" s="3">
-        <v>3.7197367544186068</v>
+        <v>6.9356979573597251</v>
       </c>
       <c r="F59" s="3">
-        <v>7.0465680528271983</v>
+        <v>5.6085382249672016</v>
       </c>
       <c r="G59">
-        <v>164.36126483063001</v>
+        <v>116.59998098958781</v>
       </c>
       <c r="H59">
         <v>0.25</v>
@@ -2720,36 +2720,36 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="3">
-        <v>39.6270470852714</v>
-      </c>
-      <c r="C60" s="3">
-        <v>103.4093075737668</v>
-      </c>
-      <c r="D60" s="3">
-        <v>10.558605364345979</v>
-      </c>
-      <c r="E60" s="3">
-        <v>3.7197367544186068</v>
-      </c>
-      <c r="F60" s="3">
-        <v>7.0465680528271983</v>
+      <c r="B60" s="4">
+        <v>91.610762916644433</v>
+      </c>
+      <c r="C60" s="4">
+        <v>29.501200277422971</v>
+      </c>
+      <c r="D60" s="4">
+        <v>37.815766268545403</v>
+      </c>
+      <c r="E60" s="4">
+        <v>15.32815727269436</v>
+      </c>
+      <c r="F60" s="4">
+        <v>5.6111746723045828</v>
       </c>
       <c r="G60">
-        <v>164.36126483063001</v>
+        <v>179.86706140761169</v>
       </c>
       <c r="H60">
         <v>0.25</v>
@@ -2760,8 +2760,8 @@
       <c r="J60">
         <v>22</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
+      <c r="K60" s="4">
+        <v>1</v>
       </c>
       <c r="L60" t="s">
         <v>14</v>
@@ -2771,23 +2771,23 @@
       <c r="A61" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="3">
-        <v>139.21338771500979</v>
-      </c>
-      <c r="C61" s="3">
-        <v>22.704288117682179</v>
-      </c>
-      <c r="D61" s="3">
-        <v>4.6655194025948052</v>
-      </c>
-      <c r="E61" s="3">
-        <v>3.293539360978722</v>
-      </c>
-      <c r="F61" s="3">
-        <v>2.4426308177591118</v>
+      <c r="B61" s="4">
+        <v>113.3488813524263</v>
+      </c>
+      <c r="C61" s="4">
+        <v>33.924884803577442</v>
+      </c>
+      <c r="D61" s="4">
+        <v>14.70709457727833</v>
+      </c>
+      <c r="E61" s="4">
+        <v>13.17158633764768</v>
+      </c>
+      <c r="F61" s="4">
+        <v>5.7485979610554283</v>
       </c>
       <c r="G61">
-        <v>172.3193654140247</v>
+        <v>180.90104503198509</v>
       </c>
       <c r="H61">
         <v>0.25</v>
@@ -2796,13 +2796,13 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>8</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="K61" s="4">
+        <v>1</v>
       </c>
       <c r="L61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -2810,22 +2810,22 @@
         <v>11</v>
       </c>
       <c r="B62" s="3">
-        <v>17.718875543952429</v>
+        <v>7.2805299698054409</v>
       </c>
       <c r="C62" s="3">
-        <v>94.112341841645161</v>
+        <v>85.068805150586627</v>
       </c>
       <c r="D62" s="3">
-        <v>17.15224484180381</v>
+        <v>6.1617140029686617</v>
       </c>
       <c r="E62" s="3">
-        <v>16.647170496613871</v>
+        <v>3.5451254414476918</v>
       </c>
       <c r="F62" s="3">
-        <v>35.84173747413768</v>
+        <v>5.7657252826849064</v>
       </c>
       <c r="G62">
-        <v>181.47237019815299</v>
+        <v>107.8218998474933</v>
       </c>
       <c r="H62">
         <v>0.25</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>11</v>
       </c>
       <c r="B63" s="3">
-        <v>73.958995441926533</v>
+        <v>11.10141291241365</v>
       </c>
       <c r="C63" s="3">
-        <v>112.77992108608041</v>
+        <v>53.961721748221272</v>
       </c>
       <c r="D63" s="3">
-        <v>9.2837747288468222</v>
+        <v>8.1692840131647912</v>
       </c>
       <c r="E63" s="3">
-        <v>8.39704402126657</v>
+        <v>4.3279962838817481</v>
       </c>
       <c r="F63" s="3">
-        <v>11.51348959448376</v>
+        <v>5.8049816855873786</v>
       </c>
       <c r="G63">
-        <v>215.93322487260409</v>
+        <v>83.365396643268852</v>
       </c>
       <c r="H63">
         <v>0.25</v>
@@ -2872,13 +2872,13 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K63" s="3">
         <v>0</v>
       </c>
       <c r="L63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -2886,22 +2886,22 @@
         <v>11</v>
       </c>
       <c r="B64" s="3">
-        <v>197.99640439748021</v>
+        <v>8.6520952918736356</v>
       </c>
       <c r="C64" s="3">
-        <v>69.477044860954024</v>
+        <v>67.675135708201623</v>
       </c>
       <c r="D64" s="3">
-        <v>23.784375807083329</v>
+        <v>21.25605954467196</v>
       </c>
       <c r="E64" s="3">
-        <v>19.92309446001012</v>
+        <v>5.6162048987557833</v>
       </c>
       <c r="F64" s="3">
-        <v>18.988484977151501</v>
+        <v>5.9309995589954703</v>
       </c>
       <c r="G64">
-        <v>330.16940450267919</v>
+        <v>109.13049500249851</v>
       </c>
       <c r="H64">
         <v>0.25</v>
@@ -2910,36 +2910,36 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K64" s="3">
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="3">
-        <v>115.45594920435769</v>
-      </c>
-      <c r="C65" s="3">
-        <v>265.25800032830739</v>
-      </c>
-      <c r="D65" s="3">
-        <v>20.866600528409379</v>
-      </c>
-      <c r="E65" s="3">
-        <v>11.394161245447551</v>
-      </c>
-      <c r="F65" s="3">
-        <v>7.6928282055569026</v>
+      <c r="B65" s="4">
+        <v>247.21865090057301</v>
+      </c>
+      <c r="C65" s="4">
+        <v>95.593171715428838</v>
+      </c>
+      <c r="D65" s="4">
+        <v>19.556880821517311</v>
+      </c>
+      <c r="E65" s="4">
+        <v>8.1414723946626744</v>
+      </c>
+      <c r="F65" s="4">
+        <v>5.9552656071069672</v>
       </c>
       <c r="G65">
-        <v>420.66753951207897</v>
+        <v>376.46544143928872</v>
       </c>
       <c r="H65">
         <v>0.25</v>
@@ -2948,10 +2948,10 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>10</v>
-      </c>
-      <c r="K65" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K65" s="4">
+        <v>1</v>
       </c>
       <c r="L65" t="s">
         <v>14</v>
@@ -2961,23 +2961,23 @@
       <c r="A66" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="3">
-        <v>919.00343944931728</v>
-      </c>
-      <c r="C66" s="3">
-        <v>66.852702607578635</v>
-      </c>
-      <c r="D66" s="3">
-        <v>44.972915703481341</v>
-      </c>
-      <c r="E66" s="3">
-        <v>33.807184387987192</v>
-      </c>
-      <c r="F66" s="3">
-        <v>32.078246758741862</v>
+      <c r="B66" s="4">
+        <v>80.408249269606259</v>
+      </c>
+      <c r="C66" s="4">
+        <v>22.90891141705962</v>
+      </c>
+      <c r="D66" s="4">
+        <v>5.0797096267815656</v>
+      </c>
+      <c r="E66" s="4">
+        <v>4.8121923886534752</v>
+      </c>
+      <c r="F66" s="4">
+        <v>6.1162451240933802</v>
       </c>
       <c r="G66">
-        <v>1096.714488907106</v>
+        <v>119.3253078261943</v>
       </c>
       <c r="H66">
         <v>0.25</v>
@@ -2986,36 +2986,36 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>15</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K66" s="4">
+        <v>1</v>
       </c>
       <c r="L66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="3">
-        <v>1453.4922561168869</v>
-      </c>
-      <c r="C67" s="3">
-        <v>95.26348723726673</v>
-      </c>
-      <c r="D67" s="3">
-        <v>11.671662519159209</v>
-      </c>
-      <c r="E67" s="3">
-        <v>4.867070586111292</v>
-      </c>
-      <c r="F67" s="3">
-        <v>3.242407507744169</v>
+      <c r="B67" s="4">
+        <v>16.125143865411118</v>
+      </c>
+      <c r="C67" s="4">
+        <v>10.299308789686039</v>
+      </c>
+      <c r="D67" s="4">
+        <v>22.416559138435691</v>
+      </c>
+      <c r="E67" s="4">
+        <v>7.0220584104885164</v>
+      </c>
+      <c r="F67" s="4">
+        <v>6.1305474974377114</v>
       </c>
       <c r="G67">
-        <v>1568.5368839671689</v>
+        <v>61.993617701459087</v>
       </c>
       <c r="H67">
         <v>0.25</v>
@@ -3024,36 +3024,36 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>13</v>
-      </c>
-      <c r="K67" s="3">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K67" s="4">
+        <v>1</v>
       </c>
       <c r="L67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="3">
-        <v>5414.6398728791501</v>
-      </c>
-      <c r="C68" s="3">
-        <v>518.57609409255906</v>
-      </c>
-      <c r="D68" s="3">
-        <v>288.74077528267782</v>
-      </c>
-      <c r="E68" s="3">
-        <v>172.10482218329491</v>
-      </c>
-      <c r="F68" s="3">
-        <v>121.0003572939808</v>
+      <c r="B68" s="4">
+        <v>101.4192739022082</v>
+      </c>
+      <c r="C68" s="4">
+        <v>29.89335274007377</v>
+      </c>
+      <c r="D68" s="4">
+        <v>14.224793764806851</v>
+      </c>
+      <c r="E68" s="4">
+        <v>14.084726097625129</v>
+      </c>
+      <c r="F68" s="4">
+        <v>6.1906691625042694</v>
       </c>
       <c r="G68">
-        <v>6515.0619217316607</v>
+        <v>165.81281566721819</v>
       </c>
       <c r="H68">
         <v>0.25</v>
@@ -3062,10 +3062,10 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>24</v>
-      </c>
-      <c r="K68" s="3">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="K68" s="4">
+        <v>1</v>
       </c>
       <c r="L68" t="s">
         <v>14</v>
@@ -3075,23 +3075,23 @@
       <c r="A69" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="4">
-        <v>16.744632358103772</v>
-      </c>
-      <c r="C69" s="4">
-        <v>19.910798133155549</v>
-      </c>
-      <c r="D69" s="4">
-        <v>15.69046328879681</v>
-      </c>
-      <c r="E69" s="4">
-        <v>4.0957034949357389</v>
-      </c>
-      <c r="F69" s="4">
-        <v>1.6626265009471111</v>
+      <c r="B69" s="3">
+        <v>26.497931476400009</v>
+      </c>
+      <c r="C69" s="3">
+        <v>99.220670756749342</v>
+      </c>
+      <c r="D69" s="3">
+        <v>21.264731760708781</v>
+      </c>
+      <c r="E69" s="3">
+        <v>4.1441380701414534</v>
+      </c>
+      <c r="F69" s="3">
+        <v>6.2048852034291873</v>
       </c>
       <c r="G69">
-        <v>58.104223775938983</v>
+        <v>157.33235726742879</v>
       </c>
       <c r="H69">
         <v>0.25</v>
@@ -3100,10 +3100,10 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>26</v>
-      </c>
-      <c r="K69" s="4">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0</v>
       </c>
       <c r="L69" t="s">
         <v>12</v>
@@ -3114,22 +3114,22 @@
         <v>11</v>
       </c>
       <c r="B70" s="4">
-        <v>18.50064565181119</v>
+        <v>243.38955597445241</v>
       </c>
       <c r="C70" s="4">
-        <v>6.5911690359939321</v>
+        <v>90.777008225829633</v>
       </c>
       <c r="D70" s="4">
-        <v>14.41053822501169</v>
+        <v>18.504990036716311</v>
       </c>
       <c r="E70" s="4">
-        <v>5.2431700541467414</v>
+        <v>7.4379115051255029</v>
       </c>
       <c r="F70" s="4">
-        <v>2.093654316110269</v>
+        <v>6.2124524497813747</v>
       </c>
       <c r="G70">
-        <v>46.839177283073823</v>
+        <v>366.32191819190513</v>
       </c>
       <c r="H70">
         <v>0.25</v>
@@ -3138,13 +3138,13 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K70" s="4">
         <v>1</v>
       </c>
       <c r="L70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -3152,22 +3152,22 @@
         <v>11</v>
       </c>
       <c r="B71" s="4">
-        <v>14.40155916338046</v>
+        <v>215.80885178142159</v>
       </c>
       <c r="C71" s="4">
-        <v>20.746208722076979</v>
+        <v>50.024372581260579</v>
       </c>
       <c r="D71" s="4">
-        <v>16.278754092360561</v>
+        <v>13.10670655950446</v>
       </c>
       <c r="E71" s="4">
-        <v>4.0411390442099773</v>
+        <v>7.2342812954142879</v>
       </c>
       <c r="F71" s="4">
-        <v>2.5829833107815832</v>
+        <v>6.3473035876945856</v>
       </c>
       <c r="G71">
-        <v>58.050644332809547</v>
+        <v>292.52151580529551</v>
       </c>
       <c r="H71">
         <v>0.25</v>
@@ -3176,36 +3176,36 @@
         <v>0</v>
       </c>
       <c r="J71">
+        <v>7</v>
+      </c>
+      <c r="K71" s="4">
+        <v>1</v>
+      </c>
+      <c r="L71" t="s">
         <v>14</v>
-      </c>
-      <c r="K71" s="4">
-        <v>1</v>
-      </c>
-      <c r="L71" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="4">
-        <v>24.685633929427642</v>
-      </c>
-      <c r="C72" s="4">
-        <v>7.5931393667692264</v>
-      </c>
-      <c r="D72" s="4">
-        <v>2.792644114059911</v>
-      </c>
-      <c r="E72" s="4">
-        <v>7.6666029287902271</v>
-      </c>
-      <c r="F72" s="4">
-        <v>2.979165538988457</v>
+      <c r="B72" s="3">
+        <v>50.142459287101659</v>
+      </c>
+      <c r="C72" s="3">
+        <v>25.998977217182571</v>
+      </c>
+      <c r="D72" s="3">
+        <v>75.088391587956352</v>
+      </c>
+      <c r="E72" s="3">
+        <v>13.99278659947959</v>
+      </c>
+      <c r="F72" s="3">
+        <v>6.6682808286588848</v>
       </c>
       <c r="G72">
-        <v>45.717185878035458</v>
+        <v>171.8908955203791</v>
       </c>
       <c r="H72">
         <v>0.25</v>
@@ -3214,10 +3214,10 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>17</v>
-      </c>
-      <c r="K72" s="4">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" t="s">
         <v>12</v>
@@ -3227,23 +3227,23 @@
       <c r="A73" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="4">
-        <v>7.4375264104219676</v>
-      </c>
-      <c r="C73" s="4">
-        <v>8.83302284535851</v>
-      </c>
-      <c r="D73" s="4">
-        <v>8.7033181351344382</v>
-      </c>
-      <c r="E73" s="4">
-        <v>4.1618711968947926</v>
-      </c>
-      <c r="F73" s="4">
-        <v>3.2776539016279558</v>
+      <c r="B73" s="3">
+        <v>11.212785309094309</v>
+      </c>
+      <c r="C73" s="3">
+        <v>68.167089350110317</v>
+      </c>
+      <c r="D73" s="3">
+        <v>9.1396893069580738</v>
+      </c>
+      <c r="E73" s="3">
+        <v>3.6961423867469998</v>
+      </c>
+      <c r="F73" s="3">
+        <v>6.6897460720185089</v>
       </c>
       <c r="G73">
-        <v>32.413392489437669</v>
+        <v>98.905452424928185</v>
       </c>
       <c r="H73">
         <v>0.25</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>9</v>
-      </c>
-      <c r="K73" s="4">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="K73" s="3">
+        <v>0</v>
       </c>
       <c r="L73" t="s">
         <v>12</v>
@@ -3265,23 +3265,23 @@
       <c r="A74" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="4">
-        <v>15.51715359627311</v>
-      </c>
-      <c r="C74" s="4">
-        <v>7.090294875343865</v>
-      </c>
-      <c r="D74" s="4">
-        <v>17.542167375562119</v>
-      </c>
-      <c r="E74" s="4">
-        <v>6.5776356228729913</v>
-      </c>
-      <c r="F74" s="4">
-        <v>3.74175953522631</v>
+      <c r="B74" s="3">
+        <v>46.51842331614214</v>
+      </c>
+      <c r="C74" s="3">
+        <v>51.937856824134997</v>
+      </c>
+      <c r="D74" s="3">
+        <v>6.3773241782014756</v>
+      </c>
+      <c r="E74" s="3">
+        <v>4.1518241142712649</v>
+      </c>
+      <c r="F74" s="3">
+        <v>6.825680521523581</v>
       </c>
       <c r="G74">
-        <v>50.469011005278396</v>
+        <v>115.81110895427349</v>
       </c>
       <c r="H74">
         <v>0.25</v>
@@ -3290,36 +3290,36 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>7</v>
-      </c>
-      <c r="K74" s="4">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K74" s="3">
+        <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="4">
-        <v>15.565160565350549</v>
-      </c>
-      <c r="C75" s="4">
-        <v>8.3245852575564037</v>
-      </c>
-      <c r="D75" s="4">
-        <v>8.7217637201035352</v>
-      </c>
-      <c r="E75" s="4">
-        <v>5.9182706821284272</v>
-      </c>
-      <c r="F75" s="4">
-        <v>4.0456980284571804</v>
+      <c r="B75" s="3">
+        <v>39.6270470852714</v>
+      </c>
+      <c r="C75" s="3">
+        <v>103.4093075737668</v>
+      </c>
+      <c r="D75" s="3">
+        <v>10.558605364345979</v>
+      </c>
+      <c r="E75" s="3">
+        <v>3.7197367544186068</v>
+      </c>
+      <c r="F75" s="3">
+        <v>7.0465680528271983</v>
       </c>
       <c r="G75">
-        <v>42.575478253596103</v>
+        <v>164.36126483063001</v>
       </c>
       <c r="H75">
         <v>0.25</v>
@@ -3328,36 +3328,36 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>5</v>
-      </c>
-      <c r="K75" s="4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K75" s="3">
+        <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="4">
-        <v>42.828189383413083</v>
-      </c>
-      <c r="C76" s="4">
-        <v>6.8391669397433947</v>
-      </c>
-      <c r="D76" s="4">
-        <v>5.9583657263394354</v>
-      </c>
-      <c r="E76" s="4">
-        <v>5.976364290412544</v>
-      </c>
-      <c r="F76" s="4">
-        <v>4.192491557473879</v>
+      <c r="B76" s="3">
+        <v>39.6270470852714</v>
+      </c>
+      <c r="C76" s="3">
+        <v>103.4093075737668</v>
+      </c>
+      <c r="D76" s="3">
+        <v>10.558605364345979</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3.7197367544186068</v>
+      </c>
+      <c r="F76" s="3">
+        <v>7.0465680528271983</v>
       </c>
       <c r="G76">
-        <v>65.794577897382325</v>
+        <v>164.36126483063001</v>
       </c>
       <c r="H76">
         <v>0.25</v>
@@ -3366,36 +3366,36 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>24</v>
-      </c>
-      <c r="K76" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="4">
-        <v>22.339217003193369</v>
-      </c>
-      <c r="C77" s="4">
-        <v>26.503565023239609</v>
-      </c>
-      <c r="D77" s="4">
-        <v>126.12661859856939</v>
-      </c>
-      <c r="E77" s="4">
-        <v>14.52095503330556</v>
-      </c>
-      <c r="F77" s="4">
-        <v>4.5303963184619436</v>
+      <c r="B77" s="3">
+        <v>39.6270470852714</v>
+      </c>
+      <c r="C77" s="3">
+        <v>103.4093075737668</v>
+      </c>
+      <c r="D77" s="3">
+        <v>10.558605364345979</v>
+      </c>
+      <c r="E77" s="3">
+        <v>3.7197367544186068</v>
+      </c>
+      <c r="F77" s="3">
+        <v>7.0465680528271983</v>
       </c>
       <c r="G77">
-        <v>194.0207519767699</v>
+        <v>164.36126483063001</v>
       </c>
       <c r="H77">
         <v>0.25</v>
@@ -3404,36 +3404,36 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>23</v>
-      </c>
-      <c r="K77" s="4">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K77" s="3">
+        <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>11</v>
       </c>
-      <c r="B78" s="4">
-        <v>9.8773307256845442</v>
-      </c>
-      <c r="C78" s="4">
-        <v>4.9101774058558263</v>
-      </c>
-      <c r="D78" s="4">
-        <v>18.109678920355289</v>
-      </c>
-      <c r="E78" s="4">
-        <v>12.443896317768409</v>
-      </c>
-      <c r="F78" s="4">
-        <v>4.7344296122511613</v>
+      <c r="B78" s="3">
+        <v>39.6270470852714</v>
+      </c>
+      <c r="C78" s="3">
+        <v>103.4093075737668</v>
+      </c>
+      <c r="D78" s="3">
+        <v>10.558605364345979</v>
+      </c>
+      <c r="E78" s="3">
+        <v>3.7197367544186068</v>
+      </c>
+      <c r="F78" s="3">
+        <v>7.0465680528271983</v>
       </c>
       <c r="G78">
-        <v>50.075512981915217</v>
+        <v>164.36126483063001</v>
       </c>
       <c r="H78">
         <v>0.25</v>
@@ -3442,36 +3442,36 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>19</v>
-      </c>
-      <c r="K78" s="4">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K78" s="3">
+        <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="4">
-        <v>30.114974835380231</v>
-      </c>
-      <c r="C79" s="4">
-        <v>72.831221705717397</v>
-      </c>
-      <c r="D79" s="4">
-        <v>30.510531420629789</v>
-      </c>
-      <c r="E79" s="4">
-        <v>5.511598592187509</v>
-      </c>
-      <c r="F79" s="4">
-        <v>4.7358522556709826</v>
+      <c r="B79" s="3">
+        <v>39.6270470852714</v>
+      </c>
+      <c r="C79" s="3">
+        <v>103.4093075737668</v>
+      </c>
+      <c r="D79" s="3">
+        <v>10.558605364345979</v>
+      </c>
+      <c r="E79" s="3">
+        <v>3.7197367544186068</v>
+      </c>
+      <c r="F79" s="3">
+        <v>7.0465680528271983</v>
       </c>
       <c r="G79">
-        <v>143.7041788095859</v>
+        <v>164.36126483063001</v>
       </c>
       <c r="H79">
         <v>0.25</v>
@@ -3480,36 +3480,36 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>22</v>
-      </c>
-      <c r="K79" s="4">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="K79" s="3">
+        <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>11</v>
       </c>
-      <c r="B80" s="4">
-        <v>22.929922573484092</v>
-      </c>
-      <c r="C80" s="4">
-        <v>33.990176425342199</v>
-      </c>
-      <c r="D80" s="4">
-        <v>115.3669789310367</v>
-      </c>
-      <c r="E80" s="4">
-        <v>13.03752596194489</v>
-      </c>
-      <c r="F80" s="4">
-        <v>5.3400825035871069</v>
+      <c r="B80" s="3">
+        <v>39.6270470852714</v>
+      </c>
+      <c r="C80" s="3">
+        <v>103.4093075737668</v>
+      </c>
+      <c r="D80" s="3">
+        <v>10.558605364345979</v>
+      </c>
+      <c r="E80" s="3">
+        <v>3.7197367544186068</v>
+      </c>
+      <c r="F80" s="3">
+        <v>7.0465680528271983</v>
       </c>
       <c r="G80">
-        <v>190.66468639539491</v>
+        <v>164.36126483063001</v>
       </c>
       <c r="H80">
         <v>0.25</v>
@@ -3518,36 +3518,36 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>13</v>
-      </c>
-      <c r="K80" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="K80" s="3">
+        <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="4">
-        <v>16.578096574735302</v>
-      </c>
-      <c r="C81" s="4">
-        <v>7.775813079002889</v>
-      </c>
-      <c r="D81" s="4">
-        <v>25.539991459771318</v>
-      </c>
-      <c r="E81" s="4">
-        <v>11.40953448778923</v>
-      </c>
-      <c r="F81" s="4">
-        <v>5.4295698144921047</v>
+      <c r="B81" s="3">
+        <v>39.6270470852714</v>
+      </c>
+      <c r="C81" s="3">
+        <v>103.4093075737668</v>
+      </c>
+      <c r="D81" s="3">
+        <v>10.558605364345979</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3.7197367544186068</v>
+      </c>
+      <c r="F81" s="3">
+        <v>7.0465680528271983</v>
       </c>
       <c r="G81">
-        <v>66.733005415790842</v>
+        <v>164.36126483063001</v>
       </c>
       <c r="H81">
         <v>0.25</v>
@@ -3556,36 +3556,36 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>10</v>
-      </c>
-      <c r="K81" s="4">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="4">
-        <v>379.31830604333879</v>
-      </c>
-      <c r="C82" s="4">
-        <v>94.716930743995889</v>
-      </c>
-      <c r="D82" s="4">
-        <v>29.09928765752057</v>
-      </c>
-      <c r="E82" s="4">
-        <v>12.499553420782179</v>
-      </c>
-      <c r="F82" s="4">
-        <v>5.5082767059114968</v>
+      <c r="B82" s="3">
+        <v>39.6270470852714</v>
+      </c>
+      <c r="C82" s="3">
+        <v>103.4093075737668</v>
+      </c>
+      <c r="D82" s="3">
+        <v>10.558605364345979</v>
+      </c>
+      <c r="E82" s="3">
+        <v>3.7197367544186068</v>
+      </c>
+      <c r="F82" s="3">
+        <v>7.0465680528271983</v>
       </c>
       <c r="G82">
-        <v>521.14235457154882</v>
+        <v>164.36126483063001</v>
       </c>
       <c r="H82">
         <v>0.25</v>
@@ -3594,36 +3594,36 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>27</v>
-      </c>
-      <c r="K82" s="4">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="K82" s="3">
+        <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="4">
-        <v>16.125143865411118</v>
-      </c>
-      <c r="C83" s="4">
-        <v>10.299308789686039</v>
-      </c>
-      <c r="D83" s="4">
-        <v>22.416559138435691</v>
-      </c>
-      <c r="E83" s="4">
-        <v>7.0220584104885164</v>
-      </c>
-      <c r="F83" s="4">
-        <v>6.1305474974377114</v>
+      <c r="B83" s="3">
+        <v>39.6270470852714</v>
+      </c>
+      <c r="C83" s="3">
+        <v>103.4093075737668</v>
+      </c>
+      <c r="D83" s="3">
+        <v>10.558605364345979</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3.7197367544186068</v>
+      </c>
+      <c r="F83" s="3">
+        <v>7.0465680528271983</v>
       </c>
       <c r="G83">
-        <v>61.993617701459087</v>
+        <v>164.36126483063001</v>
       </c>
       <c r="H83">
         <v>0.25</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>3</v>
-      </c>
-      <c r="K83" s="4">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -3683,23 +3683,23 @@
       <c r="A85" t="s">
         <v>11</v>
       </c>
-      <c r="B85" s="4">
-        <v>26.01125013346434</v>
-      </c>
-      <c r="C85" s="4">
-        <v>13.47070025014516</v>
-      </c>
-      <c r="D85" s="4">
-        <v>10.286459493182811</v>
-      </c>
-      <c r="E85" s="4">
-        <v>9.7305414851030498</v>
-      </c>
-      <c r="F85" s="4">
-        <v>7.6334396803057674</v>
+      <c r="B85" s="3">
+        <v>14.276412170780841</v>
+      </c>
+      <c r="C85" s="3">
+        <v>86.116213364345384</v>
+      </c>
+      <c r="D85" s="3">
+        <v>22.32756950495633</v>
+      </c>
+      <c r="E85" s="3">
+        <v>4.9674673684294506</v>
+      </c>
+      <c r="F85" s="3">
+        <v>7.1146552284721523</v>
       </c>
       <c r="G85">
-        <v>67.132391042201135</v>
+        <v>134.80231763698421</v>
       </c>
       <c r="H85">
         <v>0.25</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>2</v>
-      </c>
-      <c r="K85" s="4">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K85" s="3">
+        <v>0</v>
       </c>
       <c r="L85" t="s">
         <v>12</v>
@@ -3721,23 +3721,23 @@
       <c r="A86" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="4">
-        <v>11.37427297844795</v>
-      </c>
-      <c r="C86" s="4">
-        <v>18.373667515920861</v>
-      </c>
-      <c r="D86" s="4">
-        <v>56.82296235804202</v>
-      </c>
-      <c r="E86" s="4">
-        <v>21.98864248854181</v>
-      </c>
-      <c r="F86" s="4">
-        <v>8.5099962293678928</v>
+      <c r="B86" s="3">
+        <v>100.078898119226</v>
+      </c>
+      <c r="C86" s="3">
+        <v>81.43805670964062</v>
+      </c>
+      <c r="D86" s="3">
+        <v>10.72367571731789</v>
+      </c>
+      <c r="E86" s="3">
+        <v>7.2775084990663768</v>
+      </c>
+      <c r="F86" s="3">
+        <v>7.351745465581784</v>
       </c>
       <c r="G86">
-        <v>117.0695415703206</v>
+        <v>206.86988451083269</v>
       </c>
       <c r="H86">
         <v>0.25</v>
@@ -3746,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>15</v>
-      </c>
-      <c r="K86" s="4">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="K86" s="3">
+        <v>0</v>
       </c>
       <c r="L86" t="s">
         <v>12</v>
@@ -3760,22 +3760,22 @@
         <v>11</v>
       </c>
       <c r="B87" s="4">
-        <v>17.048601172029251</v>
+        <v>122.92038686023869</v>
       </c>
       <c r="C87" s="4">
-        <v>10.703893968783021</v>
+        <v>22.47449857162529</v>
       </c>
       <c r="D87" s="4">
-        <v>11.610545242016119</v>
+        <v>4.8365889753957259</v>
       </c>
       <c r="E87" s="4">
-        <v>14.653024372796599</v>
+        <v>6.8931520672436477</v>
       </c>
       <c r="F87" s="4">
-        <v>9.0161719677637358</v>
+        <v>7.3597503209811181</v>
       </c>
       <c r="G87">
-        <v>63.032236723388728</v>
+        <v>164.48437679548451</v>
       </c>
       <c r="H87">
         <v>0.25</v>
@@ -3784,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K87" s="4">
         <v>1</v>
       </c>
       <c r="L87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -3798,22 +3798,22 @@
         <v>11</v>
       </c>
       <c r="B88" s="4">
-        <v>199.28735216640129</v>
+        <v>78.211388251235462</v>
       </c>
       <c r="C88" s="4">
-        <v>16.759408994111769</v>
+        <v>21.88752835008572</v>
       </c>
       <c r="D88" s="4">
-        <v>54.08508632747499</v>
+        <v>7.4412979021814412</v>
       </c>
       <c r="E88" s="4">
-        <v>17.074520067705301</v>
+        <v>8.2059926001374741</v>
       </c>
       <c r="F88" s="4">
-        <v>11.09694880804142</v>
+        <v>7.543817815271046</v>
       </c>
       <c r="G88">
-        <v>298.30331636373478</v>
+        <v>123.2900249189111</v>
       </c>
       <c r="H88">
         <v>0.25</v>
@@ -3822,13 +3822,13 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="K88" s="4">
         <v>1</v>
       </c>
       <c r="L88" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -3836,22 +3836,22 @@
         <v>11</v>
       </c>
       <c r="B89" s="4">
-        <v>1622.1020009152639</v>
+        <v>26.01125013346434</v>
       </c>
       <c r="C89" s="4">
-        <v>279.63747453855751</v>
+        <v>13.47070025014516</v>
       </c>
       <c r="D89" s="4">
-        <v>42.647082250349733</v>
+        <v>10.286459493182811</v>
       </c>
       <c r="E89" s="4">
-        <v>22.16658659802717</v>
+        <v>9.7305414851030498</v>
       </c>
       <c r="F89" s="4">
-        <v>12.27734233899753</v>
+        <v>7.6334396803057674</v>
       </c>
       <c r="G89">
-        <v>1978.830486641197</v>
+        <v>67.132391042201135</v>
       </c>
       <c r="H89">
         <v>0.25</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="K89" s="4">
         <v>1</v>
@@ -3873,23 +3873,23 @@
       <c r="A90" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="4">
-        <v>16.575646157245849</v>
-      </c>
-      <c r="C90" s="4">
-        <v>7.4365719239434611</v>
-      </c>
-      <c r="D90" s="4">
-        <v>7.6620965558018206</v>
-      </c>
-      <c r="E90" s="4">
-        <v>17.713700792795191</v>
-      </c>
-      <c r="F90" s="4">
-        <v>14.37956991973603</v>
+      <c r="B90" s="3">
+        <v>115.45594920435769</v>
+      </c>
+      <c r="C90" s="3">
+        <v>265.25800032830739</v>
+      </c>
+      <c r="D90" s="3">
+        <v>20.866600528409379</v>
+      </c>
+      <c r="E90" s="3">
+        <v>11.394161245447551</v>
+      </c>
+      <c r="F90" s="3">
+        <v>7.6928282055569026</v>
       </c>
       <c r="G90">
-        <v>63.767585349522363</v>
+        <v>420.66753951207897</v>
       </c>
       <c r="H90">
         <v>0.25</v>
@@ -3898,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>28</v>
-      </c>
-      <c r="K90" s="4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K90" s="3">
+        <v>0</v>
       </c>
       <c r="L90" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -3912,22 +3912,22 @@
         <v>11</v>
       </c>
       <c r="B91" s="4">
-        <v>411.1876990555561</v>
+        <v>391.96161553922423</v>
       </c>
       <c r="C91" s="4">
-        <v>88.656061944628007</v>
+        <v>74.435279475749837</v>
       </c>
       <c r="D91" s="4">
-        <v>46.734498091887737</v>
+        <v>8.7952650984107201</v>
       </c>
       <c r="E91" s="4">
-        <v>20.218825045711998</v>
+        <v>9.5052185559928475</v>
       </c>
       <c r="F91" s="4">
-        <v>27.070195319728839</v>
+        <v>7.7679432474491747</v>
       </c>
       <c r="G91">
-        <v>593.86727945751272</v>
+        <v>492.46532191682701</v>
       </c>
       <c r="H91">
         <v>0.25</v>
@@ -3936,13 +3936,13 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K91" s="4">
         <v>1</v>
       </c>
       <c r="L91" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -3950,22 +3950,22 @@
         <v>11</v>
       </c>
       <c r="B92" s="4">
-        <v>19.750906054180991</v>
+        <v>54.260941036257627</v>
       </c>
       <c r="C92" s="4">
-        <v>40.701094679467907</v>
+        <v>20.226014970678651</v>
       </c>
       <c r="D92" s="4">
-        <v>18.74627432601568</v>
+        <v>22.13965556683365</v>
       </c>
       <c r="E92" s="4">
-        <v>50.463024127587389</v>
+        <v>10.666663451189329</v>
       </c>
       <c r="F92" s="4">
-        <v>92.900090197914679</v>
+        <v>8.2022145345798467</v>
       </c>
       <c r="G92">
-        <v>222.56138938516659</v>
+        <v>115.4954895595391</v>
       </c>
       <c r="H92">
         <v>0.25</v>
@@ -3974,13 +3974,13 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="K92" s="4">
         <v>1</v>
       </c>
       <c r="L92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -3988,22 +3988,22 @@
         <v>11</v>
       </c>
       <c r="B93" s="4">
-        <v>8.477650613772191</v>
+        <v>11.37427297844795</v>
       </c>
       <c r="C93" s="4">
-        <v>8.0926136755803615</v>
+        <v>18.373667515920861</v>
       </c>
       <c r="D93" s="4">
-        <v>5.8267630399059476</v>
+        <v>56.82296235804202</v>
       </c>
       <c r="E93" s="4">
-        <v>2.9726520898664401</v>
+        <v>21.98864248854181</v>
       </c>
       <c r="F93" s="4">
-        <v>2.275287328474064</v>
+        <v>8.5099962293678928</v>
       </c>
       <c r="G93">
-        <v>27.644966747599</v>
+        <v>117.0695415703206</v>
       </c>
       <c r="H93">
         <v>0.25</v>
@@ -4012,36 +4012,36 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K93" s="4">
         <v>1</v>
       </c>
       <c r="L93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="4">
-        <v>20.648156457325729</v>
-      </c>
-      <c r="C94" s="4">
-        <v>7.8533208812160833</v>
-      </c>
-      <c r="D94" s="4">
-        <v>6.9067315966167957</v>
-      </c>
-      <c r="E94" s="4">
-        <v>9.0501826509345769</v>
-      </c>
-      <c r="F94" s="4">
-        <v>9.7440444258291521</v>
+      <c r="B94" s="3">
+        <v>37.756049664872748</v>
+      </c>
+      <c r="C94" s="3">
+        <v>23.84939058914512</v>
+      </c>
+      <c r="D94" s="3">
+        <v>59.061951074146883</v>
+      </c>
+      <c r="E94" s="3">
+        <v>8.6659769680535614</v>
+      </c>
+      <c r="F94" s="3">
+        <v>8.6879180766453601</v>
       </c>
       <c r="G94">
-        <v>54.202436011922323</v>
+        <v>138.0212863728637</v>
       </c>
       <c r="H94">
         <v>0.25</v>
@@ -4050,13 +4050,13 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>1</v>
-      </c>
-      <c r="K94" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -4064,22 +4064,22 @@
         <v>11</v>
       </c>
       <c r="B95" s="4">
-        <v>32.620137155905233</v>
+        <v>103.2743342116075</v>
       </c>
       <c r="C95" s="4">
-        <v>19.600926529759189</v>
+        <v>17.674978154969381</v>
       </c>
       <c r="D95" s="4">
-        <v>28.84714093872233</v>
+        <v>5.527341029795366</v>
       </c>
       <c r="E95" s="4">
-        <v>12.316886020073399</v>
+        <v>8.7412589638896634</v>
       </c>
       <c r="F95" s="4">
-        <v>4.8446011609255999</v>
+        <v>9.0025529226548837</v>
       </c>
       <c r="G95">
-        <v>98.229691805385713</v>
+        <v>144.22046528291671</v>
       </c>
       <c r="H95">
         <v>0.25</v>
@@ -4088,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="K95" s="4">
         <v>1</v>
@@ -4102,22 +4102,22 @@
         <v>11</v>
       </c>
       <c r="B96" s="4">
-        <v>33.367532401044812</v>
+        <v>17.048601172029251</v>
       </c>
       <c r="C96" s="4">
-        <v>7.0311979296125262</v>
+        <v>10.703893968783021</v>
       </c>
       <c r="D96" s="4">
-        <v>3.911945840936728</v>
+        <v>11.610545242016119</v>
       </c>
       <c r="E96" s="4">
-        <v>2.9882281129160901</v>
+        <v>14.653024372796599</v>
       </c>
       <c r="F96" s="4">
-        <v>2.7261301221853471</v>
+        <v>9.0161719677637358</v>
       </c>
       <c r="G96">
-        <v>50.025034406695511</v>
+        <v>63.032236723388728</v>
       </c>
       <c r="H96">
         <v>0.25</v>
@@ -4126,13 +4126,13 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K96" s="4">
         <v>1</v>
       </c>
       <c r="L96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -4140,22 +4140,22 @@
         <v>11</v>
       </c>
       <c r="B97" s="4">
-        <v>45.213410686161502</v>
+        <v>20.648156457325729</v>
       </c>
       <c r="C97" s="4">
-        <v>17.69696722973308</v>
+        <v>7.8533208812160833</v>
       </c>
       <c r="D97" s="4">
-        <v>10.30542510550268</v>
+        <v>6.9067315966167957</v>
       </c>
       <c r="E97" s="4">
-        <v>30.385035260155639</v>
+        <v>9.0501826509345769</v>
       </c>
       <c r="F97" s="4">
-        <v>44.354259017061999</v>
+        <v>9.7440444258291521</v>
       </c>
       <c r="G97">
-        <v>147.9550972986149</v>
+        <v>54.202436011922323</v>
       </c>
       <c r="H97">
         <v>0.25</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="K97" s="4">
         <v>1</v>
@@ -4177,23 +4177,23 @@
       <c r="A98" t="s">
         <v>11</v>
       </c>
-      <c r="B98" s="4">
-        <v>49.166838812966901</v>
-      </c>
-      <c r="C98" s="4">
-        <v>12.246699664418511</v>
-      </c>
-      <c r="D98" s="4">
-        <v>8.1244580272556242</v>
-      </c>
-      <c r="E98" s="4">
-        <v>21.218671565320172</v>
-      </c>
-      <c r="F98" s="4">
-        <v>17.934049879428919</v>
+      <c r="B98" s="3">
+        <v>36.965916177097043</v>
+      </c>
+      <c r="C98" s="3">
+        <v>7.214446567035421</v>
+      </c>
+      <c r="D98" s="3">
+        <v>3.9754509588563929</v>
+      </c>
+      <c r="E98" s="3">
+        <v>6.9542985230032262</v>
+      </c>
+      <c r="F98" s="3">
+        <v>10.422536763192269</v>
       </c>
       <c r="G98">
-        <v>108.69071794939011</v>
+        <v>65.532648989184352</v>
       </c>
       <c r="H98">
         <v>0.25</v>
@@ -4202,10 +4202,10 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>28</v>
-      </c>
-      <c r="K98" s="4">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K98" s="3">
+        <v>0</v>
       </c>
       <c r="L98" t="s">
         <v>13</v>
@@ -4216,22 +4216,22 @@
         <v>11</v>
       </c>
       <c r="B99" s="4">
-        <v>50.262571498214392</v>
+        <v>64.704522861184046</v>
       </c>
       <c r="C99" s="4">
-        <v>57.015017758073398</v>
+        <v>18.20560608595579</v>
       </c>
       <c r="D99" s="4">
-        <v>20.577070272670699</v>
+        <v>8.3405153364939046</v>
       </c>
       <c r="E99" s="4">
-        <v>9.157850315798985</v>
+        <v>11.35792205055491</v>
       </c>
       <c r="F99" s="4">
-        <v>12.532353615104171</v>
+        <v>10.7348353178784</v>
       </c>
       <c r="G99">
-        <v>149.54486345986169</v>
+        <v>113.3434016520671</v>
       </c>
       <c r="H99">
         <v>0.25</v>
@@ -4240,13 +4240,13 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="K99" s="4">
         <v>1</v>
       </c>
       <c r="L99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -4254,22 +4254,22 @@
         <v>11</v>
       </c>
       <c r="B100" s="4">
-        <v>52.371326274687711</v>
+        <v>199.28735216640129</v>
       </c>
       <c r="C100" s="4">
-        <v>37.489746064164812</v>
+        <v>16.759408994111769</v>
       </c>
       <c r="D100" s="4">
-        <v>28.960508634078781</v>
+        <v>54.08508632747499</v>
       </c>
       <c r="E100" s="4">
-        <v>22.025232012165869</v>
+        <v>17.074520067705301</v>
       </c>
       <c r="F100" s="4">
-        <v>12.34182864052354</v>
+        <v>11.09694880804142</v>
       </c>
       <c r="G100">
-        <v>153.1886416256207</v>
+        <v>298.30331636373478</v>
       </c>
       <c r="H100">
         <v>0.25</v>
@@ -4278,36 +4278,36 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="K100" s="4">
         <v>1</v>
       </c>
       <c r="L100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="4">
-        <v>54.260941036257627</v>
-      </c>
-      <c r="C101" s="4">
-        <v>20.226014970678651</v>
-      </c>
-      <c r="D101" s="4">
-        <v>22.13965556683365</v>
-      </c>
-      <c r="E101" s="4">
-        <v>10.666663451189329</v>
-      </c>
-      <c r="F101" s="4">
-        <v>8.2022145345798467</v>
+      <c r="B101" s="3">
+        <v>28.892945691475731</v>
+      </c>
+      <c r="C101" s="3">
+        <v>52.235185348874232</v>
+      </c>
+      <c r="D101" s="3">
+        <v>11.73410939174765</v>
+      </c>
+      <c r="E101" s="3">
+        <v>6.6955116307276388</v>
+      </c>
+      <c r="F101" s="3">
+        <v>11.151977665769319</v>
       </c>
       <c r="G101">
-        <v>115.4954895595391</v>
+        <v>110.7097297285945</v>
       </c>
       <c r="H101">
         <v>0.25</v>
@@ -4316,10 +4316,10 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>25</v>
-      </c>
-      <c r="K101" s="4">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" t="s">
         <v>13</v>
@@ -4329,23 +4329,23 @@
       <c r="A102" t="s">
         <v>11</v>
       </c>
-      <c r="B102" s="4">
-        <v>56.00783069780281</v>
-      </c>
-      <c r="C102" s="4">
-        <v>30.166081215382359</v>
-      </c>
-      <c r="D102" s="4">
-        <v>13.38891158517229</v>
-      </c>
-      <c r="E102" s="4">
-        <v>6.4449641655804104</v>
-      </c>
-      <c r="F102" s="4">
-        <v>5.1945397249404062</v>
+      <c r="B102" s="3">
+        <v>73.958995441926533</v>
+      </c>
+      <c r="C102" s="3">
+        <v>112.77992108608041</v>
+      </c>
+      <c r="D102" s="3">
+        <v>9.2837747288468222</v>
+      </c>
+      <c r="E102" s="3">
+        <v>8.39704402126657</v>
+      </c>
+      <c r="F102" s="3">
+        <v>11.51348959448376</v>
       </c>
       <c r="G102">
-        <v>111.2023273888783</v>
+        <v>215.93322487260409</v>
       </c>
       <c r="H102">
         <v>0.25</v>
@@ -4354,36 +4354,36 @@
         <v>0</v>
       </c>
       <c r="J102">
+        <v>11</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" t="s">
         <v>14</v>
-      </c>
-      <c r="K102" s="4">
-        <v>1</v>
-      </c>
-      <c r="L102" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>11</v>
       </c>
-      <c r="B103" s="4">
-        <v>64.146557510262113</v>
-      </c>
-      <c r="C103" s="4">
-        <v>21.5987686913756</v>
-      </c>
-      <c r="D103" s="4">
-        <v>4.8786914881686769</v>
-      </c>
-      <c r="E103" s="4">
-        <v>2.466428709499672</v>
-      </c>
-      <c r="F103" s="4">
-        <v>1.2573622389851831</v>
+      <c r="B103" s="3">
+        <v>37.910106570296051</v>
+      </c>
+      <c r="C103" s="3">
+        <v>11.279301323781601</v>
+      </c>
+      <c r="D103" s="3">
+        <v>6.6749793732467708</v>
+      </c>
+      <c r="E103" s="3">
+        <v>5.8443960088444822</v>
+      </c>
+      <c r="F103" s="3">
+        <v>11.53096403371379</v>
       </c>
       <c r="G103">
-        <v>94.347808638291269</v>
+        <v>73.239747309882674</v>
       </c>
       <c r="H103">
         <v>0.25</v>
@@ -4392,10 +4392,10 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>27</v>
-      </c>
-      <c r="K103" s="4">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="K103" s="3">
+        <v>0</v>
       </c>
       <c r="L103" t="s">
         <v>13</v>
@@ -4405,23 +4405,23 @@
       <c r="A104" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="4">
-        <v>80.408249269606259</v>
-      </c>
-      <c r="C104" s="4">
-        <v>22.90891141705962</v>
-      </c>
-      <c r="D104" s="4">
-        <v>5.0797096267815656</v>
-      </c>
-      <c r="E104" s="4">
-        <v>4.8121923886534752</v>
-      </c>
-      <c r="F104" s="4">
-        <v>6.1162451240933802</v>
+      <c r="B104" s="3">
+        <v>67.875493173948982</v>
+      </c>
+      <c r="C104" s="3">
+        <v>13.224759320104949</v>
+      </c>
+      <c r="D104" s="3">
+        <v>10.403097821724311</v>
+      </c>
+      <c r="E104" s="3">
+        <v>10.482069451368041</v>
+      </c>
+      <c r="F104" s="3">
+        <v>11.554793573648301</v>
       </c>
       <c r="G104">
-        <v>119.3253078261943</v>
+        <v>113.54021334079459</v>
       </c>
       <c r="H104">
         <v>0.25</v>
@@ -4430,10 +4430,10 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>10</v>
-      </c>
-      <c r="K104" s="4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K104" s="3">
+        <v>0</v>
       </c>
       <c r="L104" t="s">
         <v>13</v>
@@ -4443,23 +4443,23 @@
       <c r="A105" t="s">
         <v>11</v>
       </c>
-      <c r="B105" s="4">
-        <v>87.305287244464751</v>
-      </c>
-      <c r="C105" s="4">
-        <v>28.97165398393393</v>
-      </c>
-      <c r="D105" s="4">
-        <v>11.633925019021881</v>
-      </c>
-      <c r="E105" s="4">
-        <v>4.1036078603355248</v>
-      </c>
-      <c r="F105" s="4">
-        <v>2.6179795177582799</v>
+      <c r="B105" s="3">
+        <v>7.6097159818681419</v>
+      </c>
+      <c r="C105" s="3">
+        <v>89.319375014866324</v>
+      </c>
+      <c r="D105" s="3">
+        <v>27.496726750676078</v>
+      </c>
+      <c r="E105" s="3">
+        <v>7.6957513699736007</v>
+      </c>
+      <c r="F105" s="3">
+        <v>11.86502253587566</v>
       </c>
       <c r="G105">
-        <v>134.63245362551439</v>
+        <v>143.98659165325981</v>
       </c>
       <c r="H105">
         <v>0.25</v>
@@ -4468,13 +4468,13 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>15</v>
-      </c>
-      <c r="K105" s="4">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="K105" s="3">
+        <v>0</v>
       </c>
       <c r="L105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -4482,22 +4482,22 @@
         <v>11</v>
       </c>
       <c r="B106" s="4">
-        <v>103.2743342116075</v>
+        <v>129.9570694998975</v>
       </c>
       <c r="C106" s="4">
-        <v>17.674978154969381</v>
+        <v>25.71514519659361</v>
       </c>
       <c r="D106" s="4">
-        <v>5.527341029795366</v>
+        <v>13.28301561221916</v>
       </c>
       <c r="E106" s="4">
-        <v>8.7412589638896634</v>
+        <v>10.730410465977871</v>
       </c>
       <c r="F106" s="4">
-        <v>9.0025529226548837</v>
+        <v>11.967648813657981</v>
       </c>
       <c r="G106">
-        <v>144.22046528291671</v>
+        <v>191.6532895883461</v>
       </c>
       <c r="H106">
         <v>0.25</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K106" s="4">
         <v>1</v>
@@ -4520,22 +4520,22 @@
         <v>11</v>
       </c>
       <c r="B107" s="4">
-        <v>113.3488813524263</v>
+        <v>43.29874996896271</v>
       </c>
       <c r="C107" s="4">
-        <v>33.924884803577442</v>
+        <v>14.70278264878262</v>
       </c>
       <c r="D107" s="4">
-        <v>14.70709457727833</v>
+        <v>6.1849197343608768</v>
       </c>
       <c r="E107" s="4">
-        <v>13.17158633764768</v>
+        <v>8.5096123236732257</v>
       </c>
       <c r="F107" s="4">
-        <v>5.7485979610554283</v>
+        <v>12.23171974384479</v>
       </c>
       <c r="G107">
-        <v>180.90104503198509</v>
+        <v>84.927784419624203</v>
       </c>
       <c r="H107">
         <v>0.25</v>
@@ -4544,13 +4544,13 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K107" s="4">
         <v>1</v>
       </c>
       <c r="L107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -4558,22 +4558,22 @@
         <v>11</v>
       </c>
       <c r="B108" s="4">
-        <v>118.77177056164081</v>
+        <v>1622.1020009152639</v>
       </c>
       <c r="C108" s="4">
-        <v>23.038329258864909</v>
+        <v>279.63747453855751</v>
       </c>
       <c r="D108" s="4">
-        <v>15.211935075672519</v>
+        <v>42.647082250349733</v>
       </c>
       <c r="E108" s="4">
-        <v>19.062028545586209</v>
+        <v>22.16658659802717</v>
       </c>
       <c r="F108" s="4">
-        <v>15.73379985673578</v>
+        <v>12.27734233899753</v>
       </c>
       <c r="G108">
-        <v>191.8178632985003</v>
+        <v>1978.830486641197</v>
       </c>
       <c r="H108">
         <v>0.25</v>
@@ -4582,36 +4582,36 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K108" s="4">
         <v>1</v>
       </c>
       <c r="L108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>11</v>
       </c>
-      <c r="B109" s="4">
-        <v>122.92038686023869</v>
-      </c>
-      <c r="C109" s="4">
-        <v>22.47449857162529</v>
-      </c>
-      <c r="D109" s="4">
-        <v>4.8365889753957259</v>
-      </c>
-      <c r="E109" s="4">
-        <v>6.8931520672436477</v>
-      </c>
-      <c r="F109" s="4">
-        <v>7.3597503209811181</v>
+      <c r="B109" s="3">
+        <v>63.846987322618929</v>
+      </c>
+      <c r="C109" s="3">
+        <v>36.578954397111517</v>
+      </c>
+      <c r="D109" s="3">
+        <v>25.649541744618869</v>
+      </c>
+      <c r="E109" s="3">
+        <v>10.579521764170559</v>
+      </c>
+      <c r="F109" s="3">
+        <v>12.281086398986959</v>
       </c>
       <c r="G109">
-        <v>164.48437679548451</v>
+        <v>148.93609162750681</v>
       </c>
       <c r="H109">
         <v>0.25</v>
@@ -4620,13 +4620,13 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>24</v>
-      </c>
-      <c r="K109" s="4">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="K109" s="3">
+        <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -4634,22 +4634,22 @@
         <v>11</v>
       </c>
       <c r="B110" s="4">
-        <v>128.75872092155731</v>
+        <v>9869.9345140800251</v>
       </c>
       <c r="C110" s="4">
-        <v>39.17338725000392</v>
+        <v>1001.593345530094</v>
       </c>
       <c r="D110" s="4">
-        <v>13.41509332014409</v>
+        <v>72.084493626753527</v>
       </c>
       <c r="E110" s="4">
-        <v>20.690181122999391</v>
+        <v>12.18711348386306</v>
       </c>
       <c r="F110" s="4">
-        <v>32.736118427947197</v>
+        <v>12.33382321582102</v>
       </c>
       <c r="G110">
-        <v>234.7735010426519</v>
+        <v>10968.13328993655</v>
       </c>
       <c r="H110">
         <v>0.25</v>
@@ -4658,13 +4658,13 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="K110" s="4">
         <v>1</v>
       </c>
       <c r="L110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -4672,22 +4672,22 @@
         <v>11</v>
       </c>
       <c r="B111" s="4">
-        <v>129.9570694998975</v>
+        <v>52.371326274687711</v>
       </c>
       <c r="C111" s="4">
-        <v>25.71514519659361</v>
+        <v>37.489746064164812</v>
       </c>
       <c r="D111" s="4">
-        <v>13.28301561221916</v>
+        <v>28.960508634078781</v>
       </c>
       <c r="E111" s="4">
-        <v>10.730410465977871</v>
+        <v>22.025232012165869</v>
       </c>
       <c r="F111" s="4">
-        <v>11.967648813657981</v>
+        <v>12.34182864052354</v>
       </c>
       <c r="G111">
-        <v>191.6532895883461</v>
+        <v>153.1886416256207</v>
       </c>
       <c r="H111">
         <v>0.25</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K111" s="4">
         <v>1</v>
@@ -4710,22 +4710,22 @@
         <v>11</v>
       </c>
       <c r="B112" s="4">
-        <v>163.72709289106251</v>
+        <v>50.262571498214392</v>
       </c>
       <c r="C112" s="4">
-        <v>28.036334064485551</v>
+        <v>57.015017758073398</v>
       </c>
       <c r="D112" s="4">
-        <v>3.9390272816167351</v>
+        <v>20.577070272670699</v>
       </c>
       <c r="E112" s="4">
-        <v>4.9067077663200473</v>
+        <v>9.157850315798985</v>
       </c>
       <c r="F112" s="4">
-        <v>3.802157299757845</v>
+        <v>12.532353615104171</v>
       </c>
       <c r="G112">
-        <v>204.41131930324281</v>
+        <v>149.54486345986169</v>
       </c>
       <c r="H112">
         <v>0.25</v>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K112" s="4">
         <v>1</v>
@@ -4747,23 +4747,23 @@
       <c r="A113" t="s">
         <v>11</v>
       </c>
-      <c r="B113" s="4">
-        <v>192.44602558711301</v>
-      </c>
-      <c r="C113" s="4">
-        <v>84.882551182191108</v>
-      </c>
-      <c r="D113" s="4">
-        <v>60.193299062429233</v>
-      </c>
-      <c r="E113" s="4">
-        <v>73.466226768449502</v>
-      </c>
-      <c r="F113" s="4">
-        <v>40.384197908365657</v>
+      <c r="B113" s="3">
+        <v>57.209134695904062</v>
+      </c>
+      <c r="C113" s="3">
+        <v>20.109578693041911</v>
+      </c>
+      <c r="D113" s="3">
+        <v>13.832647585749219</v>
+      </c>
+      <c r="E113" s="3">
+        <v>9.418648708694537</v>
+      </c>
+      <c r="F113" s="3">
+        <v>13.620405255560099</v>
       </c>
       <c r="G113">
-        <v>451.37230050854851</v>
+        <v>114.1904149389498</v>
       </c>
       <c r="H113">
         <v>0.25</v>
@@ -4772,10 +4772,10 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>16</v>
-      </c>
-      <c r="K113" s="4">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="K113" s="3">
+        <v>0</v>
       </c>
       <c r="L113" t="s">
         <v>13</v>
@@ -4786,22 +4786,22 @@
         <v>11</v>
       </c>
       <c r="B114" s="4">
-        <v>211.51654923849179</v>
+        <v>1824.170654399906</v>
       </c>
       <c r="C114" s="4">
-        <v>85.964052121938863</v>
+        <v>300.21421324496492</v>
       </c>
       <c r="D114" s="4">
-        <v>45.365898670455337</v>
+        <v>69.00401150500457</v>
       </c>
       <c r="E114" s="4">
-        <v>156.6754798363221</v>
+        <v>30.91758519686244</v>
       </c>
       <c r="F114" s="4">
-        <v>350.78507330550178</v>
+        <v>14.0447432912877</v>
       </c>
       <c r="G114">
-        <v>850.30705317271008</v>
+        <v>2238.3512076380248</v>
       </c>
       <c r="H114">
         <v>0.25</v>
@@ -4810,13 +4810,13 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="K114" s="4">
         <v>1</v>
       </c>
       <c r="L114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -4824,22 +4824,22 @@
         <v>11</v>
       </c>
       <c r="B115" s="4">
-        <v>243.38955597445241</v>
+        <v>16.575646157245849</v>
       </c>
       <c r="C115" s="4">
-        <v>90.777008225829633</v>
+        <v>7.4365719239434611</v>
       </c>
       <c r="D115" s="4">
-        <v>18.504990036716311</v>
+        <v>7.6620965558018206</v>
       </c>
       <c r="E115" s="4">
-        <v>7.4379115051255029</v>
+        <v>17.713700792795191</v>
       </c>
       <c r="F115" s="4">
-        <v>6.2124524497813747</v>
+        <v>14.37956991973603</v>
       </c>
       <c r="G115">
-        <v>366.32191819190513</v>
+        <v>63.767585349522363</v>
       </c>
       <c r="H115">
         <v>0.25</v>
@@ -4848,36 +4848,36 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="K115" s="4">
         <v>1</v>
       </c>
       <c r="L115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="4">
-        <v>244.08716509449951</v>
-      </c>
-      <c r="C116" s="4">
-        <v>50.402041371003847</v>
-      </c>
-      <c r="D116" s="4">
-        <v>14.34412240288591</v>
-      </c>
-      <c r="E116" s="4">
-        <v>12.46240489189837</v>
-      </c>
-      <c r="F116" s="4">
-        <v>24.430911354438539</v>
+      <c r="B116" s="3">
+        <v>647.50044938270469</v>
+      </c>
+      <c r="C116" s="3">
+        <v>97.430310618645535</v>
+      </c>
+      <c r="D116" s="3">
+        <v>50.192507118899357</v>
+      </c>
+      <c r="E116" s="3">
+        <v>24.514869046440751</v>
+      </c>
+      <c r="F116" s="3">
+        <v>14.96035063843501</v>
       </c>
       <c r="G116">
-        <v>345.72664511472618</v>
+        <v>834.59848680512562</v>
       </c>
       <c r="H116">
         <v>0.25</v>
@@ -4886,36 +4886,36 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>3</v>
-      </c>
-      <c r="K116" s="4">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K116" s="3">
+        <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>11</v>
       </c>
-      <c r="B117" s="4">
-        <v>459.43131100438018</v>
-      </c>
-      <c r="C117" s="4">
-        <v>43.575246075454757</v>
-      </c>
-      <c r="D117" s="4">
-        <v>10.79724944633465</v>
-      </c>
-      <c r="E117" s="4">
-        <v>6.452697759516874</v>
-      </c>
-      <c r="F117" s="4">
-        <v>5.2950772140498632</v>
+      <c r="B117" s="3">
+        <v>48.705299055273009</v>
+      </c>
+      <c r="C117" s="3">
+        <v>16.882905417496499</v>
+      </c>
+      <c r="D117" s="3">
+        <v>6.3912489302101019</v>
+      </c>
+      <c r="E117" s="3">
+        <v>13.223548913489591</v>
+      </c>
+      <c r="F117" s="3">
+        <v>15.156488708961829</v>
       </c>
       <c r="G117">
-        <v>525.55158149973636</v>
+        <v>100.359491025431</v>
       </c>
       <c r="H117">
         <v>0.25</v>
@@ -4924,10 +4924,10 @@
         <v>0</v>
       </c>
       <c r="J117">
-        <v>18</v>
-      </c>
-      <c r="K117" s="4">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="K117" s="3">
+        <v>0</v>
       </c>
       <c r="L117" t="s">
         <v>13</v>
@@ -4938,22 +4938,22 @@
         <v>11</v>
       </c>
       <c r="B118" s="4">
-        <v>8813.2499492013194</v>
+        <v>118.77177056164081</v>
       </c>
       <c r="C118" s="4">
-        <v>2823.1402870097531</v>
+        <v>23.038329258864909</v>
       </c>
       <c r="D118" s="4">
-        <v>1202.617852913927</v>
+        <v>15.211935075672519</v>
       </c>
       <c r="E118" s="4">
-        <v>1885.5099141926009</v>
+        <v>19.062028545586209</v>
       </c>
       <c r="F118" s="4">
-        <v>907.35758650516959</v>
+        <v>15.73379985673578</v>
       </c>
       <c r="G118">
-        <v>15631.87558982277</v>
+        <v>191.8178632985003</v>
       </c>
       <c r="H118">
         <v>0.25</v>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K118" s="4">
         <v>1</v>
@@ -4975,23 +4975,23 @@
       <c r="A119" t="s">
         <v>11</v>
       </c>
-      <c r="B119" s="4">
-        <v>19.98731361287884</v>
-      </c>
-      <c r="C119" s="4">
-        <v>10.306860844665129</v>
-      </c>
-      <c r="D119" s="4">
-        <v>6.0534239460573582</v>
-      </c>
-      <c r="E119" s="4">
-        <v>5.2631984891111756</v>
-      </c>
-      <c r="F119" s="4">
-        <v>5.3131420720231386</v>
+      <c r="B119" s="3">
+        <v>146.40383674498131</v>
+      </c>
+      <c r="C119" s="3">
+        <v>83.346811712094706</v>
+      </c>
+      <c r="D119" s="3">
+        <v>10.32709519848682</v>
+      </c>
+      <c r="E119" s="3">
+        <v>9.9199036430491905</v>
+      </c>
+      <c r="F119" s="3">
+        <v>16.27765490855883</v>
       </c>
       <c r="G119">
-        <v>46.92393896473564</v>
+        <v>266.27530220717091</v>
       </c>
       <c r="H119">
         <v>0.25</v>
@@ -5002,34 +5002,34 @@
       <c r="J119">
         <v>10</v>
       </c>
-      <c r="K119" s="4">
-        <v>1</v>
+      <c r="K119" s="3">
+        <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>11</v>
       </c>
-      <c r="B120" s="4">
-        <v>43.29874996896271</v>
-      </c>
-      <c r="C120" s="4">
-        <v>14.70278264878262</v>
-      </c>
-      <c r="D120" s="4">
-        <v>6.1849197343608768</v>
-      </c>
-      <c r="E120" s="4">
-        <v>8.5096123236732257</v>
-      </c>
-      <c r="F120" s="4">
-        <v>12.23171974384479</v>
+      <c r="B120" s="3">
+        <v>244.11410199352551</v>
+      </c>
+      <c r="C120" s="3">
+        <v>56.779821841488889</v>
+      </c>
+      <c r="D120" s="3">
+        <v>19.942472707844701</v>
+      </c>
+      <c r="E120" s="3">
+        <v>19.70767607195997</v>
+      </c>
+      <c r="F120" s="3">
+        <v>17.062972035369292</v>
       </c>
       <c r="G120">
-        <v>84.927784419624203</v>
+        <v>357.6070446501883</v>
       </c>
       <c r="H120">
         <v>0.25</v>
@@ -5038,13 +5038,13 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <v>11</v>
-      </c>
-      <c r="K120" s="4">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K120" s="3">
+        <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -5052,22 +5052,22 @@
         <v>11</v>
       </c>
       <c r="B121" s="4">
-        <v>53.279644370207379</v>
+        <v>327.26881529759203</v>
       </c>
       <c r="C121" s="4">
-        <v>19.822840782282789</v>
+        <v>57.674942595279688</v>
       </c>
       <c r="D121" s="4">
-        <v>9.7124381073697919</v>
+        <v>15.007562585762591</v>
       </c>
       <c r="E121" s="4">
-        <v>3.8940770874803179</v>
+        <v>11.597657752681309</v>
       </c>
       <c r="F121" s="4">
-        <v>2.9981825209948809</v>
+        <v>17.664448335213159</v>
       </c>
       <c r="G121">
-        <v>89.707182868335138</v>
+        <v>429.21342656652871</v>
       </c>
       <c r="H121">
         <v>0.25</v>
@@ -5076,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K121" s="4">
         <v>1</v>
@@ -5090,22 +5090,22 @@
         <v>11</v>
       </c>
       <c r="B122" s="4">
-        <v>49.828564710556151</v>
+        <v>49.166838812966901</v>
       </c>
       <c r="C122" s="4">
-        <v>33.998545883394442</v>
+        <v>12.246699664418511</v>
       </c>
       <c r="D122" s="4">
-        <v>3.6769757163166501</v>
+        <v>8.1244580272556242</v>
       </c>
       <c r="E122" s="4">
-        <v>2.6452257654075919</v>
+        <v>21.218671565320172</v>
       </c>
       <c r="F122" s="4">
-        <v>2.541022489533348</v>
+        <v>17.934049879428919</v>
       </c>
       <c r="G122">
-        <v>92.690334565208161</v>
+        <v>108.69071794939011</v>
       </c>
       <c r="H122">
         <v>0.25</v>
@@ -5120,30 +5120,30 @@
         <v>1</v>
       </c>
       <c r="L122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>11</v>
       </c>
-      <c r="B123" s="4">
-        <v>82.42069155877364</v>
-      </c>
-      <c r="C123" s="4">
-        <v>11.14951875568627</v>
-      </c>
-      <c r="D123" s="4">
-        <v>4.6900519218349164</v>
-      </c>
-      <c r="E123" s="4">
-        <v>4.1330855457455744</v>
-      </c>
-      <c r="F123" s="4">
-        <v>3.4323779740965521</v>
+      <c r="B123" s="3">
+        <v>197.99640439748021</v>
+      </c>
+      <c r="C123" s="3">
+        <v>69.477044860954024</v>
+      </c>
+      <c r="D123" s="3">
+        <v>23.784375807083329</v>
+      </c>
+      <c r="E123" s="3">
+        <v>19.92309446001012</v>
+      </c>
+      <c r="F123" s="3">
+        <v>18.988484977151501</v>
       </c>
       <c r="G123">
-        <v>105.8257257561369</v>
+        <v>330.16940450267919</v>
       </c>
       <c r="H123">
         <v>0.25</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="J123">
-        <v>12</v>
-      </c>
-      <c r="K123" s="4">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="K123" s="3">
+        <v>0</v>
       </c>
       <c r="L123" t="s">
         <v>14</v>
@@ -5165,23 +5165,23 @@
       <c r="A124" t="s">
         <v>11</v>
       </c>
-      <c r="B124" s="4">
-        <v>64.573613660137553</v>
-      </c>
-      <c r="C124" s="4">
-        <v>18.494959218024409</v>
-      </c>
-      <c r="D124" s="4">
-        <v>14.920458955394659</v>
-      </c>
-      <c r="E124" s="4">
-        <v>8.2025462065397505</v>
-      </c>
-      <c r="F124" s="4">
-        <v>5.1580699305408899</v>
+      <c r="B124" s="3">
+        <v>12.744998451409399</v>
+      </c>
+      <c r="C124" s="3">
+        <v>81.100929277775606</v>
+      </c>
+      <c r="D124" s="3">
+        <v>10.353389279654481</v>
+      </c>
+      <c r="E124" s="3">
+        <v>10.63079523346852</v>
+      </c>
+      <c r="F124" s="3">
+        <v>22.131706370413159</v>
       </c>
       <c r="G124">
-        <v>111.34964797063731</v>
+        <v>136.9618186127212</v>
       </c>
       <c r="H124">
         <v>0.25</v>
@@ -5190,10 +5190,10 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <v>24</v>
-      </c>
-      <c r="K124" s="4">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="K124" s="3">
+        <v>0</v>
       </c>
       <c r="L124" t="s">
         <v>14</v>
@@ -5204,22 +5204,22 @@
         <v>11</v>
       </c>
       <c r="B125" s="4">
-        <v>64.704522861184046</v>
+        <v>802.49508615332081</v>
       </c>
       <c r="C125" s="4">
-        <v>18.20560608595579</v>
+        <v>155.0506521762525</v>
       </c>
       <c r="D125" s="4">
-        <v>8.3405153364939046</v>
+        <v>51.181520531218531</v>
       </c>
       <c r="E125" s="4">
-        <v>11.35792205055491</v>
+        <v>22.06267778357358</v>
       </c>
       <c r="F125" s="4">
-        <v>10.7348353178784</v>
+        <v>23.482694380302679</v>
       </c>
       <c r="G125">
-        <v>113.3434016520671</v>
+        <v>1054.272631024668</v>
       </c>
       <c r="H125">
         <v>0.25</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K125" s="4">
         <v>1</v>
@@ -5242,22 +5242,22 @@
         <v>11</v>
       </c>
       <c r="B126" s="4">
-        <v>78.211388251235462</v>
+        <v>50.239737542808911</v>
       </c>
       <c r="C126" s="4">
-        <v>21.88752835008572</v>
+        <v>59.126080065312337</v>
       </c>
       <c r="D126" s="4">
-        <v>7.4412979021814412</v>
+        <v>21.811089603245762</v>
       </c>
       <c r="E126" s="4">
-        <v>8.2059926001374741</v>
+        <v>15.82104218709067</v>
       </c>
       <c r="F126" s="4">
-        <v>7.543817815271046</v>
+        <v>23.79615039279328</v>
       </c>
       <c r="G126">
-        <v>123.2900249189111</v>
+        <v>170.79409979125089</v>
       </c>
       <c r="H126">
         <v>0.25</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="J126">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="K126" s="4">
         <v>1</v>
@@ -5280,22 +5280,22 @@
         <v>11</v>
       </c>
       <c r="B127" s="4">
-        <v>101.4192739022082</v>
+        <v>244.08716509449951</v>
       </c>
       <c r="C127" s="4">
-        <v>29.89335274007377</v>
+        <v>50.402041371003847</v>
       </c>
       <c r="D127" s="4">
-        <v>14.224793764806851</v>
+        <v>14.34412240288591</v>
       </c>
       <c r="E127" s="4">
-        <v>14.084726097625129</v>
+        <v>12.46240489189837</v>
       </c>
       <c r="F127" s="4">
-        <v>6.1906691625042694</v>
+        <v>24.430911354438539</v>
       </c>
       <c r="G127">
-        <v>165.81281566721819</v>
+        <v>345.72664511472618</v>
       </c>
       <c r="H127">
         <v>0.25</v>
@@ -5304,13 +5304,13 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K127" s="4">
         <v>1</v>
       </c>
       <c r="L127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -5318,22 +5318,22 @@
         <v>11</v>
       </c>
       <c r="B128" s="4">
-        <v>116.6684656025654</v>
+        <v>411.1876990555561</v>
       </c>
       <c r="C128" s="4">
-        <v>34.564026593761852</v>
+        <v>88.656061944628007</v>
       </c>
       <c r="D128" s="4">
-        <v>6.2884297078213356</v>
+        <v>46.734498091887737</v>
       </c>
       <c r="E128" s="4">
-        <v>5.2777197161249836</v>
+        <v>20.218825045711998</v>
       </c>
       <c r="F128" s="4">
-        <v>3.950980184833087</v>
+        <v>27.070195319728839</v>
       </c>
       <c r="G128">
-        <v>166.74962180510661</v>
+        <v>593.86727945751272</v>
       </c>
       <c r="H128">
         <v>0.25</v>
@@ -5342,13 +5342,13 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K128" s="4">
         <v>1</v>
       </c>
       <c r="L128" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -5356,22 +5356,22 @@
         <v>11</v>
       </c>
       <c r="B129" s="4">
-        <v>50.239737542808911</v>
+        <v>1443.3505173028491</v>
       </c>
       <c r="C129" s="4">
-        <v>59.126080065312337</v>
+        <v>282.48162829041701</v>
       </c>
       <c r="D129" s="4">
-        <v>21.811089603245762</v>
+        <v>77.027672097595314</v>
       </c>
       <c r="E129" s="4">
-        <v>15.82104218709067</v>
+        <v>46.357209793512581</v>
       </c>
       <c r="F129" s="4">
-        <v>23.79615039279328</v>
+        <v>28.297799478086461</v>
       </c>
       <c r="G129">
-        <v>170.79409979125089</v>
+        <v>1877.514826962461</v>
       </c>
       <c r="H129">
         <v>0.25</v>
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K129" s="4">
         <v>1</v>
@@ -5393,23 +5393,23 @@
       <c r="A130" t="s">
         <v>11</v>
       </c>
-      <c r="B130" s="4">
-        <v>91.610762916644433</v>
-      </c>
-      <c r="C130" s="4">
-        <v>29.501200277422971</v>
-      </c>
-      <c r="D130" s="4">
-        <v>37.815766268545403</v>
-      </c>
-      <c r="E130" s="4">
-        <v>15.32815727269436</v>
-      </c>
-      <c r="F130" s="4">
-        <v>5.6111746723045828</v>
+      <c r="B130" s="3">
+        <v>919.00343944931728</v>
+      </c>
+      <c r="C130" s="3">
+        <v>66.852702607578635</v>
+      </c>
+      <c r="D130" s="3">
+        <v>44.972915703481341</v>
+      </c>
+      <c r="E130" s="3">
+        <v>33.807184387987192</v>
+      </c>
+      <c r="F130" s="3">
+        <v>32.078246758741862</v>
       </c>
       <c r="G130">
-        <v>179.86706140761169</v>
+        <v>1096.714488907106</v>
       </c>
       <c r="H130">
         <v>0.25</v>
@@ -5418,10 +5418,10 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <v>22</v>
-      </c>
-      <c r="K130" s="4">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="K130" s="3">
+        <v>0</v>
       </c>
       <c r="L130" t="s">
         <v>14</v>
@@ -5432,22 +5432,22 @@
         <v>11</v>
       </c>
       <c r="B131" s="4">
-        <v>224.34550815860959</v>
+        <v>128.75872092155731</v>
       </c>
       <c r="C131" s="4">
-        <v>41.661035204417097</v>
+        <v>39.17338725000392</v>
       </c>
       <c r="D131" s="4">
-        <v>6.4784637192893273</v>
+        <v>13.41509332014409</v>
       </c>
       <c r="E131" s="4">
-        <v>3.3144544274050012</v>
+        <v>20.690181122999391</v>
       </c>
       <c r="F131" s="4">
-        <v>2.11269106075334</v>
+        <v>32.736118427947197</v>
       </c>
       <c r="G131">
-        <v>277.9121525704744</v>
+        <v>234.7735010426519</v>
       </c>
       <c r="H131">
         <v>0.25</v>
@@ -5456,36 +5456,36 @@
         <v>0</v>
       </c>
       <c r="J131">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="K131" s="4">
         <v>1</v>
       </c>
       <c r="L131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>11</v>
       </c>
-      <c r="B132" s="4">
-        <v>215.80885178142159</v>
-      </c>
-      <c r="C132" s="4">
-        <v>50.024372581260579</v>
-      </c>
-      <c r="D132" s="4">
-        <v>13.10670655950446</v>
-      </c>
-      <c r="E132" s="4">
-        <v>7.2342812954142879</v>
-      </c>
-      <c r="F132" s="4">
-        <v>6.3473035876945856</v>
+      <c r="B132" s="3">
+        <v>17.718875543952429</v>
+      </c>
+      <c r="C132" s="3">
+        <v>94.112341841645161</v>
+      </c>
+      <c r="D132" s="3">
+        <v>17.15224484180381</v>
+      </c>
+      <c r="E132" s="3">
+        <v>16.647170496613871</v>
+      </c>
+      <c r="F132" s="3">
+        <v>35.84173747413768</v>
       </c>
       <c r="G132">
-        <v>292.52151580529551</v>
+        <v>181.47237019815299</v>
       </c>
       <c r="H132">
         <v>0.25</v>
@@ -5494,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="J132">
-        <v>7</v>
-      </c>
-      <c r="K132" s="4">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="K132" s="3">
+        <v>0</v>
       </c>
       <c r="L132" t="s">
         <v>14</v>
@@ -5508,22 +5508,22 @@
         <v>11</v>
       </c>
       <c r="B133" s="4">
-        <v>231.4108844620059</v>
+        <v>192.44602558711301</v>
       </c>
       <c r="C133" s="4">
-        <v>58.486922443380152</v>
+        <v>84.882551182191108</v>
       </c>
       <c r="D133" s="4">
-        <v>7.7023226506775284</v>
+        <v>60.193299062429233</v>
       </c>
       <c r="E133" s="4">
-        <v>3.982297633688471</v>
+        <v>73.466226768449502</v>
       </c>
       <c r="F133" s="4">
-        <v>4.2412067308771668</v>
+        <v>40.384197908365657</v>
       </c>
       <c r="G133">
-        <v>305.82363392062928</v>
+        <v>451.37230050854851</v>
       </c>
       <c r="H133">
         <v>0.25</v>
@@ -5532,13 +5532,13 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K133" s="4">
         <v>1</v>
       </c>
       <c r="L133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -5546,22 +5546,22 @@
         <v>11</v>
       </c>
       <c r="B134" s="4">
-        <v>247.21865090057301</v>
+        <v>367.45311960539601</v>
       </c>
       <c r="C134" s="4">
-        <v>95.593171715428838</v>
+        <v>118.2721507217701</v>
       </c>
       <c r="D134" s="4">
-        <v>19.556880821517311</v>
+        <v>22.682676158199559</v>
       </c>
       <c r="E134" s="4">
-        <v>8.1414723946626744</v>
+        <v>24.83054104651897</v>
       </c>
       <c r="F134" s="4">
-        <v>5.9552656071069672</v>
+        <v>42.680288285119943</v>
       </c>
       <c r="G134">
-        <v>376.46544143928872</v>
+        <v>575.91877581700442</v>
       </c>
       <c r="H134">
         <v>0.25</v>
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K134" s="4">
         <v>1</v>
@@ -5584,22 +5584,22 @@
         <v>11</v>
       </c>
       <c r="B135" s="4">
-        <v>327.26881529759203</v>
+        <v>45.213410686161502</v>
       </c>
       <c r="C135" s="4">
-        <v>57.674942595279688</v>
+        <v>17.69696722973308</v>
       </c>
       <c r="D135" s="4">
-        <v>15.007562585762591</v>
+        <v>10.30542510550268</v>
       </c>
       <c r="E135" s="4">
-        <v>11.597657752681309</v>
+        <v>30.385035260155639</v>
       </c>
       <c r="F135" s="4">
-        <v>17.664448335213159</v>
+        <v>44.354259017061999</v>
       </c>
       <c r="G135">
-        <v>429.21342656652871</v>
+        <v>147.9550972986149</v>
       </c>
       <c r="H135">
         <v>0.25</v>
@@ -5608,36 +5608,36 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="K135" s="4">
         <v>1</v>
       </c>
       <c r="L135" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>11</v>
       </c>
-      <c r="B136" s="4">
-        <v>391.96161553922423</v>
-      </c>
-      <c r="C136" s="4">
-        <v>74.435279475749837</v>
-      </c>
-      <c r="D136" s="4">
-        <v>8.7952650984107201</v>
-      </c>
-      <c r="E136" s="4">
-        <v>9.5052185559928475</v>
-      </c>
-      <c r="F136" s="4">
-        <v>7.7679432474491747</v>
+      <c r="B136" s="3">
+        <v>95.252481567230873</v>
+      </c>
+      <c r="C136" s="3">
+        <v>35.372875165236721</v>
+      </c>
+      <c r="D136" s="3">
+        <v>64.253429598289301</v>
+      </c>
+      <c r="E136" s="3">
+        <v>36.666158455169906</v>
+      </c>
+      <c r="F136" s="3">
+        <v>50.563439926190753</v>
       </c>
       <c r="G136">
-        <v>492.46532191682701</v>
+        <v>282.10838471211758</v>
       </c>
       <c r="H136">
         <v>0.25</v>
@@ -5646,36 +5646,36 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>23</v>
-      </c>
-      <c r="K136" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="K136" s="3">
+        <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>11</v>
       </c>
-      <c r="B137" s="4">
-        <v>367.45311960539601</v>
-      </c>
-      <c r="C137" s="4">
-        <v>118.2721507217701</v>
-      </c>
-      <c r="D137" s="4">
-        <v>22.682676158199559</v>
-      </c>
-      <c r="E137" s="4">
-        <v>24.83054104651897</v>
-      </c>
-      <c r="F137" s="4">
-        <v>42.680288285119943</v>
+      <c r="B137" s="3">
+        <v>25.11970571891176</v>
+      </c>
+      <c r="C137" s="3">
+        <v>72.381527620920394</v>
+      </c>
+      <c r="D137" s="3">
+        <v>17.511131036755589</v>
+      </c>
+      <c r="E137" s="3">
+        <v>26.277533370937849</v>
+      </c>
+      <c r="F137" s="3">
+        <v>62.671355279622048</v>
       </c>
       <c r="G137">
-        <v>575.91877581700442</v>
+        <v>203.96125302714771</v>
       </c>
       <c r="H137">
         <v>0.25</v>
@@ -5684,13 +5684,13 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>4</v>
-      </c>
-      <c r="K137" s="4">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="K137" s="3">
+        <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
@@ -5698,22 +5698,22 @@
         <v>11</v>
       </c>
       <c r="B138" s="4">
-        <v>802.49508615332081</v>
+        <v>19.750906054180991</v>
       </c>
       <c r="C138" s="4">
-        <v>155.0506521762525</v>
+        <v>40.701094679467907</v>
       </c>
       <c r="D138" s="4">
-        <v>51.181520531218531</v>
+        <v>18.74627432601568</v>
       </c>
       <c r="E138" s="4">
-        <v>22.06267778357358</v>
+        <v>50.463024127587389</v>
       </c>
       <c r="F138" s="4">
-        <v>23.482694380302679</v>
+        <v>92.900090197914679</v>
       </c>
       <c r="G138">
-        <v>1054.272631024668</v>
+        <v>222.56138938516659</v>
       </c>
       <c r="H138">
         <v>0.25</v>
@@ -5722,13 +5722,13 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="K138" s="4">
         <v>1</v>
       </c>
       <c r="L138" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -5773,23 +5773,23 @@
       <c r="A140" t="s">
         <v>11</v>
       </c>
-      <c r="B140" s="4">
-        <v>767.75750175207895</v>
-      </c>
-      <c r="C140" s="4">
-        <v>273.0156269892567</v>
-      </c>
-      <c r="D140" s="4">
-        <v>163.55187981132781</v>
-      </c>
-      <c r="E140" s="4">
-        <v>246.68980573289431</v>
-      </c>
-      <c r="F140" s="4">
-        <v>203.60164589658879</v>
+      <c r="B140" s="3">
+        <v>5414.6398728791501</v>
+      </c>
+      <c r="C140" s="3">
+        <v>518.57609409255906</v>
+      </c>
+      <c r="D140" s="3">
+        <v>288.74077528267782</v>
+      </c>
+      <c r="E140" s="3">
+        <v>172.10482218329491</v>
+      </c>
+      <c r="F140" s="3">
+        <v>121.0003572939808</v>
       </c>
       <c r="G140">
-        <v>1654.616460182147</v>
+        <v>6515.0619217316607</v>
       </c>
       <c r="H140">
         <v>0.25</v>
@@ -5798,10 +5798,10 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>15</v>
-      </c>
-      <c r="K140" s="4">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K140" s="3">
+        <v>0</v>
       </c>
       <c r="L140" t="s">
         <v>14</v>
@@ -5812,22 +5812,22 @@
         <v>11</v>
       </c>
       <c r="B141" s="4">
-        <v>1443.3505173028491</v>
+        <v>767.75750175207895</v>
       </c>
       <c r="C141" s="4">
-        <v>282.48162829041701</v>
+        <v>273.0156269892567</v>
       </c>
       <c r="D141" s="4">
-        <v>77.027672097595314</v>
+        <v>163.55187981132781</v>
       </c>
       <c r="E141" s="4">
-        <v>46.357209793512581</v>
+        <v>246.68980573289431</v>
       </c>
       <c r="F141" s="4">
-        <v>28.297799478086461</v>
+        <v>203.60164589658879</v>
       </c>
       <c r="G141">
-        <v>1877.514826962461</v>
+        <v>1654.616460182147</v>
       </c>
       <c r="H141">
         <v>0.25</v>
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K141" s="4">
         <v>1</v>
@@ -5850,22 +5850,22 @@
         <v>11</v>
       </c>
       <c r="B142" s="4">
-        <v>1824.170654399906</v>
+        <v>211.51654923849179</v>
       </c>
       <c r="C142" s="4">
-        <v>300.21421324496492</v>
+        <v>85.964052121938863</v>
       </c>
       <c r="D142" s="4">
-        <v>69.00401150500457</v>
+        <v>45.365898670455337</v>
       </c>
       <c r="E142" s="4">
-        <v>30.91758519686244</v>
+        <v>156.6754798363221</v>
       </c>
       <c r="F142" s="4">
-        <v>14.0447432912877</v>
+        <v>350.78507330550178</v>
       </c>
       <c r="G142">
-        <v>2238.3512076380248</v>
+        <v>850.30705317271008</v>
       </c>
       <c r="H142">
         <v>0.25</v>
@@ -5874,13 +5874,13 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="K142" s="4">
         <v>1</v>
       </c>
       <c r="L142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -5888,22 +5888,22 @@
         <v>11</v>
       </c>
       <c r="B143" s="4">
-        <v>283.96801766353173</v>
+        <v>2244.2871352972602</v>
       </c>
       <c r="C143" s="4">
-        <v>92.145470572118711</v>
+        <v>288.26702975955658</v>
       </c>
       <c r="D143" s="4">
-        <v>133.79187010884019</v>
+        <v>137.86650162722981</v>
       </c>
       <c r="E143" s="4">
-        <v>681.8476875091053</v>
+        <v>129.20990659236409</v>
       </c>
       <c r="F143" s="4">
-        <v>1830.7693682929539</v>
+        <v>839.74290186726887</v>
       </c>
       <c r="G143">
-        <v>3022.5224141465492</v>
+        <v>3639.37347514368</v>
       </c>
       <c r="H143">
         <v>0.25</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="J143">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="K143" s="4">
         <v>1</v>
@@ -5926,22 +5926,22 @@
         <v>11</v>
       </c>
       <c r="B144" s="4">
-        <v>2244.2871352972602</v>
+        <v>8813.2499492013194</v>
       </c>
       <c r="C144" s="4">
-        <v>288.26702975955658</v>
+        <v>2823.1402870097531</v>
       </c>
       <c r="D144" s="4">
-        <v>137.86650162722981</v>
+        <v>1202.617852913927</v>
       </c>
       <c r="E144" s="4">
-        <v>129.20990659236409</v>
+        <v>1885.5099141926009</v>
       </c>
       <c r="F144" s="4">
-        <v>839.74290186726887</v>
+        <v>907.35758650516959</v>
       </c>
       <c r="G144">
-        <v>3639.37347514368</v>
+        <v>15631.87558982277</v>
       </c>
       <c r="H144">
         <v>0.25</v>
@@ -5950,13 +5950,13 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K144" s="4">
         <v>1</v>
       </c>
       <c r="L144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -5964,22 +5964,22 @@
         <v>11</v>
       </c>
       <c r="B145" s="4">
-        <v>9869.9345140800251</v>
+        <v>283.96801766353173</v>
       </c>
       <c r="C145" s="4">
-        <v>1001.593345530094</v>
+        <v>92.145470572118711</v>
       </c>
       <c r="D145" s="4">
-        <v>72.084493626753527</v>
+        <v>133.79187010884019</v>
       </c>
       <c r="E145" s="4">
-        <v>12.18711348386306</v>
+        <v>681.8476875091053</v>
       </c>
       <c r="F145" s="4">
-        <v>12.33382321582102</v>
+        <v>1830.7693682929539</v>
       </c>
       <c r="G145">
-        <v>10968.13328993655</v>
+        <v>3022.5224141465492</v>
       </c>
       <c r="H145">
         <v>0.25</v>
@@ -5988,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="J145">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K145" s="4">
         <v>1</v>
@@ -5998,6 +5998,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L146">
+    <sortCondition ref="F2:F146"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>